--- a/import/prep/excel/63-12ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กค63 (1-30กย63).xlsx
+++ b/import/prep/excel/63-12ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กค63 (1-30กย63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D094B-D9E7-FA41-9036-034ABD12501A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFDEFCB-7869-5B40-AEB3-C745F54A852F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$833</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AA$250</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11945,7 +11945,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12318,6 +12318,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12350,12 +12357,6 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12390,38 +12391,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12435,25 +12415,34 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12769,22 +12758,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>3197</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="137"/>
@@ -12806,25 +12795,25 @@
       <c r="P2" s="133"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="149" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="149" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="153" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="138" t="s">
@@ -12833,47 +12822,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="146" t="s">
+      <c r="J3" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="149" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="152" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="136" t="s">
         <v>2397</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="150"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="138" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
       <c r="L4" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="146"/>
-      <c r="N4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="152"/>
       <c r="R4" s="104" t="s">
         <v>3198</v>
       </c>
@@ -55010,22 +54999,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>3406</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
       <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -55046,25 +55035,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="151" t="s">
+      <c r="E3" s="154" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="156" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="138" t="s">
@@ -55073,47 +55062,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="151" t="s">
+      <c r="J3" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="154" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="151" t="s">
+      <c r="M3" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="155" t="s">
+      <c r="N3" s="158" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="136" t="s">
         <v>2397</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="154"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="138" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
       <c r="L4" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="152"/>
-      <c r="N4" s="156"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="159"/>
       <c r="Q4" s="106"/>
       <c r="R4" s="107" t="s">
         <v>3407</v>
@@ -67874,8 +67863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="G248" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R253" sqref="R253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67902,25 +67891,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="175" t="s">
         <v>3444</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
       <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
@@ -67948,82 +67937,82 @@
       <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="154" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="177" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="127"/>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="177" t="s">
+      <c r="M3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="177" t="s">
+      <c r="N3" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="179" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="179" t="s">
+      <c r="Q3" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="173" t="s">
+      <c r="R3" s="171" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="152"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="184"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="128"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
       <c r="P4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="174"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="172"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -68091,7 +68080,7 @@
       <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="163" t="s">
         <v>3450</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -68151,7 +68140,7 @@
       <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="163"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="26" t="s">
         <v>3452</v>
       </c>
@@ -68209,7 +68198,7 @@
       <c r="A8" s="51">
         <v>4</v>
       </c>
-      <c r="B8" s="163"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="26" t="s">
         <v>3453</v>
       </c>
@@ -68267,7 +68256,7 @@
       <c r="A9" s="51">
         <v>5</v>
       </c>
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="26" t="s">
         <v>3454</v>
       </c>
@@ -68325,7 +68314,7 @@
       <c r="A10" s="51">
         <v>6</v>
       </c>
-      <c r="B10" s="164"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="26" t="s">
         <v>3455</v>
       </c>
@@ -68383,7 +68372,7 @@
       <c r="A11" s="51">
         <v>7</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="163" t="s">
         <v>3483</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -68443,7 +68432,7 @@
       <c r="A12" s="51">
         <v>8</v>
       </c>
-      <c r="B12" s="163"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="26" t="s">
         <v>3457</v>
       </c>
@@ -68501,7 +68490,7 @@
       <c r="A13" s="51">
         <v>9</v>
       </c>
-      <c r="B13" s="163"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="26" t="s">
         <v>3458</v>
       </c>
@@ -68559,7 +68548,7 @@
       <c r="A14" s="51">
         <v>10</v>
       </c>
-      <c r="B14" s="163"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="26" t="s">
         <v>3459</v>
       </c>
@@ -68617,7 +68606,7 @@
       <c r="A15" s="51">
         <v>11</v>
       </c>
-      <c r="B15" s="163"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="26" t="s">
         <v>3460</v>
       </c>
@@ -68675,7 +68664,7 @@
       <c r="A16" s="51">
         <v>12</v>
       </c>
-      <c r="B16" s="163"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="26" t="s">
         <v>3461</v>
       </c>
@@ -68733,7 +68722,7 @@
       <c r="A17" s="51">
         <v>13</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="26" t="s">
         <v>3462</v>
       </c>
@@ -68791,7 +68780,7 @@
       <c r="A18" s="51">
         <v>14</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="26" t="s">
         <v>3463</v>
       </c>
@@ -68849,7 +68838,7 @@
       <c r="A19" s="51">
         <v>15</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="26" t="s">
         <v>3464</v>
       </c>
@@ -68908,7 +68897,7 @@
       <c r="A20" s="51">
         <v>16</v>
       </c>
-      <c r="B20" s="163"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="26" t="s">
         <v>3465</v>
       </c>
@@ -68967,7 +68956,7 @@
       <c r="A21" s="51">
         <v>17</v>
       </c>
-      <c r="B21" s="163"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="26" t="s">
         <v>3466</v>
       </c>
@@ -69025,7 +69014,7 @@
       <c r="A22" s="51">
         <v>18</v>
       </c>
-      <c r="B22" s="163"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="26" t="s">
         <v>3467</v>
       </c>
@@ -69083,7 +69072,7 @@
       <c r="A23" s="51">
         <v>19</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="26" t="s">
         <v>3484</v>
       </c>
@@ -69141,7 +69130,7 @@
       <c r="A24" s="51">
         <v>20</v>
       </c>
-      <c r="B24" s="164"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="26" t="s">
         <v>3485</v>
       </c>
@@ -69199,7 +69188,7 @@
       <c r="A25" s="51">
         <v>21</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="163" t="s">
         <v>3496</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -69259,17 +69248,17 @@
       <c r="A26" s="51">
         <v>22</v>
       </c>
-      <c r="B26" s="163"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="26" t="s">
         <v>3498</v>
       </c>
-      <c r="D26" s="162" t="s">
+      <c r="D26" s="163" t="s">
         <v>2211</v>
       </c>
-      <c r="E26" s="170" t="s">
+      <c r="E26" s="173" t="s">
         <v>2212</v>
       </c>
-      <c r="F26" s="170" t="s">
+      <c r="F26" s="173" t="s">
         <v>2194</v>
       </c>
       <c r="G26" s="116" t="s">
@@ -69308,22 +69297,31 @@
         <f>ROUNDDOWN(H26+I26+N26,2)</f>
         <v>26.21</v>
       </c>
-      <c r="Q26" s="190">
+      <c r="Q26" s="66">
+        <v>26.25</v>
+      </c>
+      <c r="R26" s="146">
+        <v>26.25</v>
+      </c>
+      <c r="S26" s="70">
+        <f>SUM(R26:R27)</f>
         <v>67.5</v>
       </c>
-      <c r="R26" s="67"/>
+      <c r="T26" s="141">
+        <v>67.5</v>
+      </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="51">
         <v>23</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="145" t="s">
         <v>3526</v>
       </c>
-      <c r="D27" s="164"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
       <c r="G27" s="116" t="s">
         <v>3220</v>
       </c>
@@ -69360,24 +69358,28 @@
         <f t="shared" si="1"/>
         <v>41.19</v>
       </c>
-      <c r="Q27" s="190"/>
-      <c r="R27" s="67"/>
+      <c r="Q27" s="66">
+        <v>41.25</v>
+      </c>
+      <c r="R27" s="146">
+        <v>41.25</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="51">
         <v>24</v>
       </c>
-      <c r="B28" s="163"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="26" t="s">
         <v>3499</v>
       </c>
-      <c r="D28" s="162" t="s">
+      <c r="D28" s="163" t="s">
         <v>2213</v>
       </c>
-      <c r="E28" s="170" t="s">
+      <c r="E28" s="173" t="s">
         <v>2212</v>
       </c>
-      <c r="F28" s="170" t="s">
+      <c r="F28" s="173" t="s">
         <v>2194</v>
       </c>
       <c r="G28" s="116" t="s">
@@ -69416,22 +69418,31 @@
         <f t="shared" si="1"/>
         <v>426.93</v>
       </c>
-      <c r="Q28" s="190">
+      <c r="Q28" s="66">
+        <v>427</v>
+      </c>
+      <c r="R28" s="146">
+        <v>427</v>
+      </c>
+      <c r="S28" s="70">
+        <f>SUM(R28:R29)</f>
         <v>988.75</v>
       </c>
-      <c r="R28" s="67"/>
+      <c r="T28" s="141">
+        <v>988.75</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="51">
         <v>25</v>
       </c>
-      <c r="B29" s="163"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="145" t="s">
         <v>3527</v>
       </c>
-      <c r="D29" s="164"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
       <c r="G29" s="116" t="s">
         <v>3220</v>
       </c>
@@ -69468,14 +69479,18 @@
         <f t="shared" si="1"/>
         <v>561.75</v>
       </c>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="67"/>
+      <c r="Q29" s="66">
+        <v>561.75</v>
+      </c>
+      <c r="R29" s="146">
+        <v>561.75</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="51">
         <v>26</v>
       </c>
-      <c r="B30" s="163"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="26" t="s">
         <v>3500</v>
       </c>
@@ -69533,7 +69548,7 @@
       <c r="A31" s="51">
         <v>27</v>
       </c>
-      <c r="B31" s="163"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="26" t="s">
         <v>3501</v>
       </c>
@@ -69591,7 +69606,7 @@
       <c r="A32" s="51">
         <v>28</v>
       </c>
-      <c r="B32" s="163"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="26" t="s">
         <v>3502</v>
       </c>
@@ -69649,7 +69664,7 @@
       <c r="A33" s="51">
         <v>29</v>
       </c>
-      <c r="B33" s="163"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="26" t="s">
         <v>3503</v>
       </c>
@@ -69707,7 +69722,7 @@
       <c r="A34" s="51">
         <v>30</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="26" t="s">
         <v>3504</v>
       </c>
@@ -69765,7 +69780,7 @@
       <c r="A35" s="51">
         <v>31</v>
       </c>
-      <c r="B35" s="163"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="26" t="s">
         <v>3505</v>
       </c>
@@ -69823,7 +69838,7 @@
       <c r="A36" s="51">
         <v>32</v>
       </c>
-      <c r="B36" s="163"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="26" t="s">
         <v>3506</v>
       </c>
@@ -69881,7 +69896,7 @@
       <c r="A37" s="51">
         <v>33</v>
       </c>
-      <c r="B37" s="163"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="26" t="s">
         <v>3507</v>
       </c>
@@ -69939,7 +69954,7 @@
       <c r="A38" s="51">
         <v>34</v>
       </c>
-      <c r="B38" s="163"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="26" t="s">
         <v>3508</v>
       </c>
@@ -69997,7 +70012,7 @@
       <c r="A39" s="51">
         <v>35</v>
       </c>
-      <c r="B39" s="163"/>
+      <c r="B39" s="164"/>
       <c r="C39" s="26" t="s">
         <v>3509</v>
       </c>
@@ -70055,7 +70070,7 @@
       <c r="A40" s="51">
         <v>36</v>
       </c>
-      <c r="B40" s="163"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="26" t="s">
         <v>3510</v>
       </c>
@@ -70112,7 +70127,7 @@
       <c r="A41" s="51">
         <v>37</v>
       </c>
-      <c r="B41" s="163"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="26" t="s">
         <v>3511</v>
       </c>
@@ -70170,7 +70185,7 @@
       <c r="A42" s="51">
         <v>38</v>
       </c>
-      <c r="B42" s="163"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="26" t="s">
         <v>3512</v>
       </c>
@@ -70228,7 +70243,7 @@
       <c r="A43" s="51">
         <v>39</v>
       </c>
-      <c r="B43" s="163"/>
+      <c r="B43" s="164"/>
       <c r="C43" s="26" t="s">
         <v>3513</v>
       </c>
@@ -70286,7 +70301,7 @@
       <c r="A44" s="51">
         <v>40</v>
       </c>
-      <c r="B44" s="163"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="26" t="s">
         <v>3514</v>
       </c>
@@ -70344,7 +70359,7 @@
       <c r="A45" s="51">
         <v>41</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="26" t="s">
         <v>3515</v>
       </c>
@@ -70402,7 +70417,7 @@
       <c r="A46" s="51">
         <v>42</v>
       </c>
-      <c r="B46" s="163"/>
+      <c r="B46" s="164"/>
       <c r="C46" s="26" t="s">
         <v>3516</v>
       </c>
@@ -70460,7 +70475,7 @@
       <c r="A47" s="51">
         <v>43</v>
       </c>
-      <c r="B47" s="163"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="26" t="s">
         <v>3517</v>
       </c>
@@ -70518,7 +70533,7 @@
       <c r="A48" s="51">
         <v>44</v>
       </c>
-      <c r="B48" s="163"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="26" t="s">
         <v>3518</v>
       </c>
@@ -70576,7 +70591,7 @@
       <c r="A49" s="51">
         <v>45</v>
       </c>
-      <c r="B49" s="163"/>
+      <c r="B49" s="164"/>
       <c r="C49" s="26" t="s">
         <v>3519</v>
       </c>
@@ -70634,7 +70649,7 @@
       <c r="A50" s="51">
         <v>46</v>
       </c>
-      <c r="B50" s="163"/>
+      <c r="B50" s="164"/>
       <c r="C50" s="26" t="s">
         <v>3520</v>
       </c>
@@ -70692,7 +70707,7 @@
       <c r="A51" s="51">
         <v>47</v>
       </c>
-      <c r="B51" s="163"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="26" t="s">
         <v>3521</v>
       </c>
@@ -70750,7 +70765,7 @@
       <c r="A52" s="51">
         <v>48</v>
       </c>
-      <c r="B52" s="163"/>
+      <c r="B52" s="164"/>
       <c r="C52" s="26" t="s">
         <v>3522</v>
       </c>
@@ -70808,7 +70823,7 @@
       <c r="A53" s="51">
         <v>49</v>
       </c>
-      <c r="B53" s="164"/>
+      <c r="B53" s="165"/>
       <c r="C53" s="26" t="s">
         <v>3523</v>
       </c>
@@ -70866,7 +70881,7 @@
       <c r="A54" s="51">
         <v>50</v>
       </c>
-      <c r="B54" s="162" t="s">
+      <c r="B54" s="163" t="s">
         <v>3541</v>
       </c>
       <c r="C54" s="26" t="s">
@@ -70926,7 +70941,7 @@
       <c r="A55" s="51">
         <v>51</v>
       </c>
-      <c r="B55" s="163"/>
+      <c r="B55" s="164"/>
       <c r="C55" s="26" t="s">
         <v>3543</v>
       </c>
@@ -70984,7 +70999,7 @@
       <c r="A56" s="51">
         <v>52</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="26" t="s">
         <v>3544</v>
       </c>
@@ -71042,7 +71057,7 @@
       <c r="A57" s="51">
         <v>53</v>
       </c>
-      <c r="B57" s="163"/>
+      <c r="B57" s="164"/>
       <c r="C57" s="26" t="s">
         <v>3545</v>
       </c>
@@ -71100,7 +71115,7 @@
       <c r="A58" s="51">
         <v>54</v>
       </c>
-      <c r="B58" s="163"/>
+      <c r="B58" s="164"/>
       <c r="C58" s="26" t="s">
         <v>3546</v>
       </c>
@@ -71158,7 +71173,7 @@
       <c r="A59" s="51">
         <v>55</v>
       </c>
-      <c r="B59" s="163"/>
+      <c r="B59" s="164"/>
       <c r="C59" s="26" t="s">
         <v>3547</v>
       </c>
@@ -71216,7 +71231,7 @@
       <c r="A60" s="51">
         <v>56</v>
       </c>
-      <c r="B60" s="163"/>
+      <c r="B60" s="164"/>
       <c r="C60" s="26" t="s">
         <v>3548</v>
       </c>
@@ -71274,7 +71289,7 @@
       <c r="A61" s="51">
         <v>57</v>
       </c>
-      <c r="B61" s="163"/>
+      <c r="B61" s="164"/>
       <c r="C61" s="26" t="s">
         <v>3549</v>
       </c>
@@ -71332,7 +71347,7 @@
       <c r="A62" s="51">
         <v>58</v>
       </c>
-      <c r="B62" s="163"/>
+      <c r="B62" s="164"/>
       <c r="C62" s="26" t="s">
         <v>3550</v>
       </c>
@@ -71390,7 +71405,7 @@
       <c r="A63" s="51">
         <v>59</v>
       </c>
-      <c r="B63" s="163"/>
+      <c r="B63" s="164"/>
       <c r="C63" s="26" t="s">
         <v>3551</v>
       </c>
@@ -71448,7 +71463,7 @@
       <c r="A64" s="51">
         <v>60</v>
       </c>
-      <c r="B64" s="163"/>
+      <c r="B64" s="164"/>
       <c r="C64" s="26" t="s">
         <v>3552</v>
       </c>
@@ -71506,7 +71521,7 @@
       <c r="A65" s="51">
         <v>61</v>
       </c>
-      <c r="B65" s="163"/>
+      <c r="B65" s="164"/>
       <c r="C65" s="26" t="s">
         <v>3553</v>
       </c>
@@ -71564,7 +71579,7 @@
       <c r="A66" s="51">
         <v>62</v>
       </c>
-      <c r="B66" s="163"/>
+      <c r="B66" s="164"/>
       <c r="C66" s="26" t="s">
         <v>3554</v>
       </c>
@@ -71622,7 +71637,7 @@
       <c r="A67" s="51">
         <v>63</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="26" t="s">
         <v>3555</v>
       </c>
@@ -71680,7 +71695,7 @@
       <c r="A68" s="51">
         <v>64</v>
       </c>
-      <c r="B68" s="163"/>
+      <c r="B68" s="164"/>
       <c r="C68" s="26" t="s">
         <v>3556</v>
       </c>
@@ -71738,7 +71753,7 @@
       <c r="A69" s="51">
         <v>65</v>
       </c>
-      <c r="B69" s="163"/>
+      <c r="B69" s="164"/>
       <c r="C69" s="26" t="s">
         <v>3557</v>
       </c>
@@ -71796,7 +71811,7 @@
       <c r="A70" s="51">
         <v>66</v>
       </c>
-      <c r="B70" s="163"/>
+      <c r="B70" s="164"/>
       <c r="C70" s="26" t="s">
         <v>3558</v>
       </c>
@@ -71854,7 +71869,7 @@
       <c r="A71" s="51">
         <v>67</v>
       </c>
-      <c r="B71" s="163"/>
+      <c r="B71" s="164"/>
       <c r="C71" s="26" t="s">
         <v>3559</v>
       </c>
@@ -71912,7 +71927,7 @@
       <c r="A72" s="51">
         <v>68</v>
       </c>
-      <c r="B72" s="163"/>
+      <c r="B72" s="164"/>
       <c r="C72" s="26" t="s">
         <v>3560</v>
       </c>
@@ -71970,7 +71985,7 @@
       <c r="A73" s="51">
         <v>69</v>
       </c>
-      <c r="B73" s="163"/>
+      <c r="B73" s="164"/>
       <c r="C73" s="26" t="s">
         <v>3561</v>
       </c>
@@ -72028,7 +72043,7 @@
       <c r="A74" s="51">
         <v>70</v>
       </c>
-      <c r="B74" s="163"/>
+      <c r="B74" s="164"/>
       <c r="C74" s="26" t="s">
         <v>3562</v>
       </c>
@@ -72086,7 +72101,7 @@
       <c r="A75" s="51">
         <v>71</v>
       </c>
-      <c r="B75" s="163"/>
+      <c r="B75" s="164"/>
       <c r="C75" s="26" t="s">
         <v>3563</v>
       </c>
@@ -72144,7 +72159,7 @@
       <c r="A76" s="51">
         <v>72</v>
       </c>
-      <c r="B76" s="163"/>
+      <c r="B76" s="164"/>
       <c r="C76" s="26" t="s">
         <v>3564</v>
       </c>
@@ -72202,7 +72217,7 @@
       <c r="A77" s="51">
         <v>73</v>
       </c>
-      <c r="B77" s="163"/>
+      <c r="B77" s="164"/>
       <c r="C77" s="26" t="s">
         <v>3565</v>
       </c>
@@ -72260,7 +72275,7 @@
       <c r="A78" s="51">
         <v>74</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="26" t="s">
         <v>3566</v>
       </c>
@@ -72318,7 +72333,7 @@
       <c r="A79" s="51">
         <v>75</v>
       </c>
-      <c r="B79" s="163"/>
+      <c r="B79" s="164"/>
       <c r="C79" s="26" t="s">
         <v>3567</v>
       </c>
@@ -72376,7 +72391,7 @@
       <c r="A80" s="51">
         <v>76</v>
       </c>
-      <c r="B80" s="163"/>
+      <c r="B80" s="164"/>
       <c r="C80" s="26" t="s">
         <v>3568</v>
       </c>
@@ -72434,7 +72449,7 @@
       <c r="A81" s="51">
         <v>77</v>
       </c>
-      <c r="B81" s="163"/>
+      <c r="B81" s="164"/>
       <c r="C81" s="26" t="s">
         <v>3569</v>
       </c>
@@ -72492,7 +72507,7 @@
       <c r="A82" s="51">
         <v>78</v>
       </c>
-      <c r="B82" s="163"/>
+      <c r="B82" s="164"/>
       <c r="C82" s="26" t="s">
         <v>3570</v>
       </c>
@@ -72550,7 +72565,7 @@
       <c r="A83" s="51">
         <v>79</v>
       </c>
-      <c r="B83" s="163"/>
+      <c r="B83" s="164"/>
       <c r="C83" s="26" t="s">
         <v>3571</v>
       </c>
@@ -72608,7 +72623,7 @@
       <c r="A84" s="51">
         <v>80</v>
       </c>
-      <c r="B84" s="163"/>
+      <c r="B84" s="164"/>
       <c r="C84" s="26" t="s">
         <v>3572</v>
       </c>
@@ -72666,7 +72681,7 @@
       <c r="A85" s="51">
         <v>81</v>
       </c>
-      <c r="B85" s="163"/>
+      <c r="B85" s="164"/>
       <c r="C85" s="26" t="s">
         <v>3573</v>
       </c>
@@ -72724,7 +72739,7 @@
       <c r="A86" s="51">
         <v>82</v>
       </c>
-      <c r="B86" s="163"/>
+      <c r="B86" s="164"/>
       <c r="C86" s="26" t="s">
         <v>3574</v>
       </c>
@@ -72782,7 +72797,7 @@
       <c r="A87" s="51">
         <v>83</v>
       </c>
-      <c r="B87" s="163"/>
+      <c r="B87" s="164"/>
       <c r="C87" s="26" t="s">
         <v>3575</v>
       </c>
@@ -72842,7 +72857,7 @@
       <c r="A88" s="51">
         <v>84</v>
       </c>
-      <c r="B88" s="163"/>
+      <c r="B88" s="164"/>
       <c r="C88" s="26" t="s">
         <v>3576</v>
       </c>
@@ -72900,7 +72915,7 @@
       <c r="A89" s="51">
         <v>85</v>
       </c>
-      <c r="B89" s="164"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="26" t="s">
         <v>3577</v>
       </c>
@@ -73081,7 +73096,7 @@
       <c r="A92" s="51">
         <v>88</v>
       </c>
-      <c r="B92" s="162" t="s">
+      <c r="B92" s="163" t="s">
         <v>3634</v>
       </c>
       <c r="C92" s="26" t="s">
@@ -73141,7 +73156,7 @@
       <c r="A93" s="51">
         <v>89</v>
       </c>
-      <c r="B93" s="163"/>
+      <c r="B93" s="164"/>
       <c r="C93" s="26" t="s">
         <v>3598</v>
       </c>
@@ -73199,7 +73214,7 @@
       <c r="A94" s="51">
         <v>90</v>
       </c>
-      <c r="B94" s="163"/>
+      <c r="B94" s="164"/>
       <c r="C94" s="26" t="s">
         <v>3599</v>
       </c>
@@ -73257,7 +73272,7 @@
       <c r="A95" s="51">
         <v>91</v>
       </c>
-      <c r="B95" s="163"/>
+      <c r="B95" s="164"/>
       <c r="C95" s="26" t="s">
         <v>3600</v>
       </c>
@@ -73315,7 +73330,7 @@
       <c r="A96" s="51">
         <v>92</v>
       </c>
-      <c r="B96" s="163"/>
+      <c r="B96" s="164"/>
       <c r="C96" s="26" t="s">
         <v>3601</v>
       </c>
@@ -73373,7 +73388,7 @@
       <c r="A97" s="51">
         <v>93</v>
       </c>
-      <c r="B97" s="163"/>
+      <c r="B97" s="164"/>
       <c r="C97" s="26" t="s">
         <v>3602</v>
       </c>
@@ -73431,7 +73446,7 @@
       <c r="A98" s="51">
         <v>94</v>
       </c>
-      <c r="B98" s="163"/>
+      <c r="B98" s="164"/>
       <c r="C98" s="26" t="s">
         <v>3603</v>
       </c>
@@ -73489,7 +73504,7 @@
       <c r="A99" s="51">
         <v>95</v>
       </c>
-      <c r="B99" s="163"/>
+      <c r="B99" s="164"/>
       <c r="C99" s="26" t="s">
         <v>3604</v>
       </c>
@@ -73547,7 +73562,7 @@
       <c r="A100" s="51">
         <v>96</v>
       </c>
-      <c r="B100" s="163"/>
+      <c r="B100" s="164"/>
       <c r="C100" s="26" t="s">
         <v>3605</v>
       </c>
@@ -73605,7 +73620,7 @@
       <c r="A101" s="51">
         <v>97</v>
       </c>
-      <c r="B101" s="163"/>
+      <c r="B101" s="164"/>
       <c r="C101" s="26" t="s">
         <v>3606</v>
       </c>
@@ -73663,7 +73678,7 @@
       <c r="A102" s="51">
         <v>98</v>
       </c>
-      <c r="B102" s="163"/>
+      <c r="B102" s="164"/>
       <c r="C102" s="26" t="s">
         <v>3607</v>
       </c>
@@ -73721,7 +73736,7 @@
       <c r="A103" s="51">
         <v>99</v>
       </c>
-      <c r="B103" s="163"/>
+      <c r="B103" s="164"/>
       <c r="C103" s="26" t="s">
         <v>3608</v>
       </c>
@@ -73779,7 +73794,7 @@
       <c r="A104" s="51">
         <v>100</v>
       </c>
-      <c r="B104" s="163"/>
+      <c r="B104" s="164"/>
       <c r="C104" s="26" t="s">
         <v>3609</v>
       </c>
@@ -73837,7 +73852,7 @@
       <c r="A105" s="51">
         <v>101</v>
       </c>
-      <c r="B105" s="163"/>
+      <c r="B105" s="164"/>
       <c r="C105" s="26" t="s">
         <v>3610</v>
       </c>
@@ -73895,7 +73910,7 @@
       <c r="A106" s="51">
         <v>102</v>
       </c>
-      <c r="B106" s="163"/>
+      <c r="B106" s="164"/>
       <c r="C106" s="26" t="s">
         <v>3611</v>
       </c>
@@ -73953,7 +73968,7 @@
       <c r="A107" s="51">
         <v>103</v>
       </c>
-      <c r="B107" s="163"/>
+      <c r="B107" s="164"/>
       <c r="C107" s="26" t="s">
         <v>3612</v>
       </c>
@@ -74011,7 +74026,7 @@
       <c r="A108" s="51">
         <v>104</v>
       </c>
-      <c r="B108" s="163"/>
+      <c r="B108" s="164"/>
       <c r="C108" s="26" t="s">
         <v>3613</v>
       </c>
@@ -74069,7 +74084,7 @@
       <c r="A109" s="51">
         <v>105</v>
       </c>
-      <c r="B109" s="163"/>
+      <c r="B109" s="164"/>
       <c r="C109" s="26" t="s">
         <v>3614</v>
       </c>
@@ -74127,7 +74142,7 @@
       <c r="A110" s="51">
         <v>106</v>
       </c>
-      <c r="B110" s="163"/>
+      <c r="B110" s="164"/>
       <c r="C110" s="26" t="s">
         <v>3615</v>
       </c>
@@ -74185,7 +74200,7 @@
       <c r="A111" s="51">
         <v>107</v>
       </c>
-      <c r="B111" s="163"/>
+      <c r="B111" s="164"/>
       <c r="C111" s="26" t="s">
         <v>3616</v>
       </c>
@@ -74243,7 +74258,7 @@
       <c r="A112" s="51">
         <v>108</v>
       </c>
-      <c r="B112" s="163"/>
+      <c r="B112" s="164"/>
       <c r="C112" s="26" t="s">
         <v>3617</v>
       </c>
@@ -74301,7 +74316,7 @@
       <c r="A113" s="51">
         <v>109</v>
       </c>
-      <c r="B113" s="163"/>
+      <c r="B113" s="164"/>
       <c r="C113" s="26" t="s">
         <v>3618</v>
       </c>
@@ -74359,7 +74374,7 @@
       <c r="A114" s="51">
         <v>110</v>
       </c>
-      <c r="B114" s="163"/>
+      <c r="B114" s="164"/>
       <c r="C114" s="26" t="s">
         <v>3619</v>
       </c>
@@ -74417,7 +74432,7 @@
       <c r="A115" s="51">
         <v>111</v>
       </c>
-      <c r="B115" s="163"/>
+      <c r="B115" s="164"/>
       <c r="C115" s="26" t="s">
         <v>3620</v>
       </c>
@@ -74475,7 +74490,7 @@
       <c r="A116" s="51">
         <v>112</v>
       </c>
-      <c r="B116" s="163"/>
+      <c r="B116" s="164"/>
       <c r="C116" s="26" t="s">
         <v>3621</v>
       </c>
@@ -74533,7 +74548,7 @@
       <c r="A117" s="51">
         <v>113</v>
       </c>
-      <c r="B117" s="163"/>
+      <c r="B117" s="164"/>
       <c r="C117" s="26" t="s">
         <v>3622</v>
       </c>
@@ -74591,7 +74606,7 @@
       <c r="A118" s="51">
         <v>114</v>
       </c>
-      <c r="B118" s="163"/>
+      <c r="B118" s="164"/>
       <c r="C118" s="26" t="s">
         <v>3623</v>
       </c>
@@ -74649,7 +74664,7 @@
       <c r="A119" s="51">
         <v>115</v>
       </c>
-      <c r="B119" s="163"/>
+      <c r="B119" s="164"/>
       <c r="C119" s="26" t="s">
         <v>3624</v>
       </c>
@@ -74707,7 +74722,7 @@
       <c r="A120" s="51">
         <v>116</v>
       </c>
-      <c r="B120" s="163"/>
+      <c r="B120" s="164"/>
       <c r="C120" s="26" t="s">
         <v>3625</v>
       </c>
@@ -74765,7 +74780,7 @@
       <c r="A121" s="51">
         <v>117</v>
       </c>
-      <c r="B121" s="163"/>
+      <c r="B121" s="164"/>
       <c r="C121" s="26" t="s">
         <v>3626</v>
       </c>
@@ -74823,7 +74838,7 @@
       <c r="A122" s="51">
         <v>118</v>
       </c>
-      <c r="B122" s="163"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="26" t="s">
         <v>3627</v>
       </c>
@@ -74881,7 +74896,7 @@
       <c r="A123" s="51">
         <v>119</v>
       </c>
-      <c r="B123" s="163"/>
+      <c r="B123" s="164"/>
       <c r="C123" s="26" t="s">
         <v>3628</v>
       </c>
@@ -74939,7 +74954,7 @@
       <c r="A124" s="51">
         <v>120</v>
       </c>
-      <c r="B124" s="163"/>
+      <c r="B124" s="164"/>
       <c r="C124" s="26" t="s">
         <v>3629</v>
       </c>
@@ -74997,7 +75012,7 @@
       <c r="A125" s="51">
         <v>121</v>
       </c>
-      <c r="B125" s="163"/>
+      <c r="B125" s="164"/>
       <c r="C125" s="26" t="s">
         <v>3630</v>
       </c>
@@ -75055,7 +75070,7 @@
       <c r="A126" s="51">
         <v>122</v>
       </c>
-      <c r="B126" s="163"/>
+      <c r="B126" s="164"/>
       <c r="C126" s="26" t="s">
         <v>3631</v>
       </c>
@@ -75113,7 +75128,7 @@
       <c r="A127" s="51">
         <v>123</v>
       </c>
-      <c r="B127" s="163"/>
+      <c r="B127" s="164"/>
       <c r="C127" s="26" t="s">
         <v>3632</v>
       </c>
@@ -75171,7 +75186,7 @@
       <c r="A128" s="51">
         <v>124</v>
       </c>
-      <c r="B128" s="163"/>
+      <c r="B128" s="164"/>
       <c r="C128" s="26" t="s">
         <v>3633</v>
       </c>
@@ -75229,7 +75244,7 @@
       <c r="A129" s="51">
         <v>125</v>
       </c>
-      <c r="B129" s="163"/>
+      <c r="B129" s="164"/>
       <c r="C129" s="26" t="s">
         <v>3635</v>
       </c>
@@ -75287,7 +75302,7 @@
       <c r="A130" s="51">
         <v>126</v>
       </c>
-      <c r="B130" s="163"/>
+      <c r="B130" s="164"/>
       <c r="C130" s="26" t="s">
         <v>3636</v>
       </c>
@@ -75345,7 +75360,7 @@
       <c r="A131" s="51">
         <v>127</v>
       </c>
-      <c r="B131" s="163"/>
+      <c r="B131" s="164"/>
       <c r="C131" s="26" t="s">
         <v>3637</v>
       </c>
@@ -75403,7 +75418,7 @@
       <c r="A132" s="51">
         <v>128</v>
       </c>
-      <c r="B132" s="163"/>
+      <c r="B132" s="164"/>
       <c r="C132" s="26" t="s">
         <v>3638</v>
       </c>
@@ -75461,7 +75476,7 @@
       <c r="A133" s="51">
         <v>129</v>
       </c>
-      <c r="B133" s="164"/>
+      <c r="B133" s="165"/>
       <c r="C133" s="26" t="s">
         <v>3639</v>
       </c>
@@ -75519,7 +75534,7 @@
       <c r="A134" s="51">
         <v>130</v>
       </c>
-      <c r="B134" s="162" t="s">
+      <c r="B134" s="163" t="s">
         <v>3657</v>
       </c>
       <c r="C134" s="26" t="s">
@@ -75579,7 +75594,7 @@
       <c r="A135" s="51">
         <v>131</v>
       </c>
-      <c r="B135" s="163"/>
+      <c r="B135" s="164"/>
       <c r="C135" s="26" t="s">
         <v>3659</v>
       </c>
@@ -75637,7 +75652,7 @@
       <c r="A136" s="51">
         <v>132</v>
       </c>
-      <c r="B136" s="163"/>
+      <c r="B136" s="164"/>
       <c r="C136" s="26" t="s">
         <v>3660</v>
       </c>
@@ -75695,7 +75710,7 @@
       <c r="A137" s="51">
         <v>133</v>
       </c>
-      <c r="B137" s="163"/>
+      <c r="B137" s="164"/>
       <c r="C137" s="26" t="s">
         <v>3661</v>
       </c>
@@ -75753,7 +75768,7 @@
       <c r="A138" s="51">
         <v>134</v>
       </c>
-      <c r="B138" s="163"/>
+      <c r="B138" s="164"/>
       <c r="C138" s="26" t="s">
         <v>3662</v>
       </c>
@@ -75811,7 +75826,7 @@
       <c r="A139" s="51">
         <v>135</v>
       </c>
-      <c r="B139" s="163"/>
+      <c r="B139" s="164"/>
       <c r="C139" s="26" t="s">
         <v>3663</v>
       </c>
@@ -75869,7 +75884,7 @@
       <c r="A140" s="51">
         <v>136</v>
       </c>
-      <c r="B140" s="163"/>
+      <c r="B140" s="164"/>
       <c r="C140" s="26" t="s">
         <v>3664</v>
       </c>
@@ -75927,7 +75942,7 @@
       <c r="A141" s="51">
         <v>137</v>
       </c>
-      <c r="B141" s="163"/>
+      <c r="B141" s="164"/>
       <c r="C141" s="26" t="s">
         <v>3665</v>
       </c>
@@ -75985,7 +76000,7 @@
       <c r="A142" s="51">
         <v>138</v>
       </c>
-      <c r="B142" s="163"/>
+      <c r="B142" s="164"/>
       <c r="C142" s="26" t="s">
         <v>3666</v>
       </c>
@@ -76043,7 +76058,7 @@
       <c r="A143" s="51">
         <v>139</v>
       </c>
-      <c r="B143" s="163"/>
+      <c r="B143" s="164"/>
       <c r="C143" s="26" t="s">
         <v>3667</v>
       </c>
@@ -76101,7 +76116,7 @@
       <c r="A144" s="51">
         <v>140</v>
       </c>
-      <c r="B144" s="163"/>
+      <c r="B144" s="164"/>
       <c r="C144" s="26" t="s">
         <v>3668</v>
       </c>
@@ -76159,7 +76174,7 @@
       <c r="A145" s="51">
         <v>141</v>
       </c>
-      <c r="B145" s="163"/>
+      <c r="B145" s="164"/>
       <c r="C145" s="26" t="s">
         <v>3669</v>
       </c>
@@ -76217,7 +76232,7 @@
       <c r="A146" s="51">
         <v>142</v>
       </c>
-      <c r="B146" s="163"/>
+      <c r="B146" s="164"/>
       <c r="C146" s="26" t="s">
         <v>3670</v>
       </c>
@@ -76275,7 +76290,7 @@
       <c r="A147" s="51">
         <v>143</v>
       </c>
-      <c r="B147" s="163"/>
+      <c r="B147" s="164"/>
       <c r="C147" s="26" t="s">
         <v>3671</v>
       </c>
@@ -76333,7 +76348,7 @@
       <c r="A148" s="51">
         <v>144</v>
       </c>
-      <c r="B148" s="163"/>
+      <c r="B148" s="164"/>
       <c r="C148" s="26" t="s">
         <v>3672</v>
       </c>
@@ -76391,7 +76406,7 @@
       <c r="A149" s="51">
         <v>145</v>
       </c>
-      <c r="B149" s="163"/>
+      <c r="B149" s="164"/>
       <c r="C149" s="26" t="s">
         <v>3673</v>
       </c>
@@ -76449,7 +76464,7 @@
       <c r="A150" s="51">
         <v>146</v>
       </c>
-      <c r="B150" s="163"/>
+      <c r="B150" s="164"/>
       <c r="C150" s="26" t="s">
         <v>3674</v>
       </c>
@@ -76507,7 +76522,7 @@
       <c r="A151" s="51">
         <v>147</v>
       </c>
-      <c r="B151" s="163"/>
+      <c r="B151" s="164"/>
       <c r="C151" s="26" t="s">
         <v>3675</v>
       </c>
@@ -76565,7 +76580,7 @@
       <c r="A152" s="51">
         <v>148</v>
       </c>
-      <c r="B152" s="163"/>
+      <c r="B152" s="164"/>
       <c r="C152" s="26" t="s">
         <v>3676</v>
       </c>
@@ -76623,7 +76638,7 @@
       <c r="A153" s="51">
         <v>149</v>
       </c>
-      <c r="B153" s="163"/>
+      <c r="B153" s="164"/>
       <c r="C153" s="26" t="s">
         <v>3677</v>
       </c>
@@ -76681,7 +76696,7 @@
       <c r="A154" s="51">
         <v>150</v>
       </c>
-      <c r="B154" s="163"/>
+      <c r="B154" s="164"/>
       <c r="C154" s="26" t="s">
         <v>3678</v>
       </c>
@@ -76739,7 +76754,7 @@
       <c r="A155" s="51">
         <v>151</v>
       </c>
-      <c r="B155" s="163"/>
+      <c r="B155" s="164"/>
       <c r="C155" s="26" t="s">
         <v>3679</v>
       </c>
@@ -76797,7 +76812,7 @@
       <c r="A156" s="51">
         <v>152</v>
       </c>
-      <c r="B156" s="163"/>
+      <c r="B156" s="164"/>
       <c r="C156" s="26" t="s">
         <v>3680</v>
       </c>
@@ -76855,7 +76870,7 @@
       <c r="A157" s="51">
         <v>153</v>
       </c>
-      <c r="B157" s="163"/>
+      <c r="B157" s="164"/>
       <c r="C157" s="26" t="s">
         <v>3681</v>
       </c>
@@ -76913,7 +76928,7 @@
       <c r="A158" s="51">
         <v>154</v>
       </c>
-      <c r="B158" s="163"/>
+      <c r="B158" s="164"/>
       <c r="C158" s="26" t="s">
         <v>3682</v>
       </c>
@@ -76971,7 +76986,7 @@
       <c r="A159" s="51">
         <v>155</v>
       </c>
-      <c r="B159" s="163"/>
+      <c r="B159" s="164"/>
       <c r="C159" s="26" t="s">
         <v>3683</v>
       </c>
@@ -77029,7 +77044,7 @@
       <c r="A160" s="51">
         <v>156</v>
       </c>
-      <c r="B160" s="163"/>
+      <c r="B160" s="164"/>
       <c r="C160" s="26" t="s">
         <v>3684</v>
       </c>
@@ -77087,7 +77102,7 @@
       <c r="A161" s="51">
         <v>157</v>
       </c>
-      <c r="B161" s="163"/>
+      <c r="B161" s="164"/>
       <c r="C161" s="26" t="s">
         <v>3685</v>
       </c>
@@ -77145,7 +77160,7 @@
       <c r="A162" s="51">
         <v>158</v>
       </c>
-      <c r="B162" s="163"/>
+      <c r="B162" s="164"/>
       <c r="C162" s="26" t="s">
         <v>3686</v>
       </c>
@@ -77203,7 +77218,7 @@
       <c r="A163" s="51">
         <v>159</v>
       </c>
-      <c r="B163" s="163"/>
+      <c r="B163" s="164"/>
       <c r="C163" s="26" t="s">
         <v>3687</v>
       </c>
@@ -77261,7 +77276,7 @@
       <c r="A164" s="51">
         <v>160</v>
       </c>
-      <c r="B164" s="163"/>
+      <c r="B164" s="164"/>
       <c r="C164" s="26" t="s">
         <v>3688</v>
       </c>
@@ -77319,7 +77334,7 @@
       <c r="A165" s="51">
         <v>161</v>
       </c>
-      <c r="B165" s="163"/>
+      <c r="B165" s="164"/>
       <c r="C165" s="26" t="s">
         <v>3689</v>
       </c>
@@ -77377,7 +77392,7 @@
       <c r="A166" s="51">
         <v>162</v>
       </c>
-      <c r="B166" s="163"/>
+      <c r="B166" s="164"/>
       <c r="C166" s="26" t="s">
         <v>3690</v>
       </c>
@@ -77435,7 +77450,7 @@
       <c r="A167" s="51">
         <v>163</v>
       </c>
-      <c r="B167" s="163"/>
+      <c r="B167" s="164"/>
       <c r="C167" s="26" t="s">
         <v>3691</v>
       </c>
@@ -77493,7 +77508,7 @@
       <c r="A168" s="51">
         <v>164</v>
       </c>
-      <c r="B168" s="163"/>
+      <c r="B168" s="164"/>
       <c r="C168" s="26" t="s">
         <v>3692</v>
       </c>
@@ -77551,7 +77566,7 @@
       <c r="A169" s="51">
         <v>165</v>
       </c>
-      <c r="B169" s="163"/>
+      <c r="B169" s="164"/>
       <c r="C169" s="26" t="s">
         <v>3693</v>
       </c>
@@ -77609,7 +77624,7 @@
       <c r="A170" s="51">
         <v>166</v>
       </c>
-      <c r="B170" s="163"/>
+      <c r="B170" s="164"/>
       <c r="C170" s="26" t="s">
         <v>3694</v>
       </c>
@@ -77667,7 +77682,7 @@
       <c r="A171" s="51">
         <v>167</v>
       </c>
-      <c r="B171" s="163"/>
+      <c r="B171" s="164"/>
       <c r="C171" s="26" t="s">
         <v>3695</v>
       </c>
@@ -77725,7 +77740,7 @@
       <c r="A172" s="51">
         <v>168</v>
       </c>
-      <c r="B172" s="163"/>
+      <c r="B172" s="164"/>
       <c r="C172" s="26" t="s">
         <v>3696</v>
       </c>
@@ -77783,7 +77798,7 @@
       <c r="A173" s="51">
         <v>169</v>
       </c>
-      <c r="B173" s="163"/>
+      <c r="B173" s="164"/>
       <c r="C173" s="26" t="s">
         <v>3697</v>
       </c>
@@ -77841,7 +77856,7 @@
       <c r="A174" s="51">
         <v>170</v>
       </c>
-      <c r="B174" s="163"/>
+      <c r="B174" s="164"/>
       <c r="C174" s="26" t="s">
         <v>3698</v>
       </c>
@@ -77899,7 +77914,7 @@
       <c r="A175" s="51">
         <v>171</v>
       </c>
-      <c r="B175" s="163"/>
+      <c r="B175" s="164"/>
       <c r="C175" s="26" t="s">
         <v>3699</v>
       </c>
@@ -77957,7 +77972,7 @@
       <c r="A176" s="51">
         <v>172</v>
       </c>
-      <c r="B176" s="163"/>
+      <c r="B176" s="164"/>
       <c r="C176" s="26" t="s">
         <v>3700</v>
       </c>
@@ -78015,7 +78030,7 @@
       <c r="A177" s="51">
         <v>173</v>
       </c>
-      <c r="B177" s="163"/>
+      <c r="B177" s="164"/>
       <c r="C177" s="26" t="s">
         <v>3701</v>
       </c>
@@ -78073,7 +78088,7 @@
       <c r="A178" s="51">
         <v>174</v>
       </c>
-      <c r="B178" s="163"/>
+      <c r="B178" s="164"/>
       <c r="C178" s="26" t="s">
         <v>3702</v>
       </c>
@@ -78131,7 +78146,7 @@
       <c r="A179" s="51">
         <v>175</v>
       </c>
-      <c r="B179" s="163"/>
+      <c r="B179" s="164"/>
       <c r="C179" s="26" t="s">
         <v>3703</v>
       </c>
@@ -78189,7 +78204,7 @@
       <c r="A180" s="51">
         <v>176</v>
       </c>
-      <c r="B180" s="163"/>
+      <c r="B180" s="164"/>
       <c r="C180" s="26" t="s">
         <v>3704</v>
       </c>
@@ -78247,7 +78262,7 @@
       <c r="A181" s="51">
         <v>177</v>
       </c>
-      <c r="B181" s="163"/>
+      <c r="B181" s="164"/>
       <c r="C181" s="26" t="s">
         <v>3705</v>
       </c>
@@ -78305,7 +78320,7 @@
       <c r="A182" s="51">
         <v>178</v>
       </c>
-      <c r="B182" s="163"/>
+      <c r="B182" s="164"/>
       <c r="C182" s="26" t="s">
         <v>3706</v>
       </c>
@@ -78363,7 +78378,7 @@
       <c r="A183" s="51">
         <v>179</v>
       </c>
-      <c r="B183" s="163"/>
+      <c r="B183" s="164"/>
       <c r="C183" s="26" t="s">
         <v>3707</v>
       </c>
@@ -78421,7 +78436,7 @@
       <c r="A184" s="51">
         <v>180</v>
       </c>
-      <c r="B184" s="163"/>
+      <c r="B184" s="164"/>
       <c r="C184" s="26" t="s">
         <v>3708</v>
       </c>
@@ -78479,7 +78494,7 @@
       <c r="A185" s="51">
         <v>181</v>
       </c>
-      <c r="B185" s="163"/>
+      <c r="B185" s="164"/>
       <c r="C185" s="26" t="s">
         <v>3709</v>
       </c>
@@ -78537,7 +78552,7 @@
       <c r="A186" s="51">
         <v>182</v>
       </c>
-      <c r="B186" s="163"/>
+      <c r="B186" s="164"/>
       <c r="C186" s="26" t="s">
         <v>3710</v>
       </c>
@@ -78595,7 +78610,7 @@
       <c r="A187" s="51">
         <v>183</v>
       </c>
-      <c r="B187" s="163"/>
+      <c r="B187" s="164"/>
       <c r="C187" s="26" t="s">
         <v>3711</v>
       </c>
@@ -78653,7 +78668,7 @@
       <c r="A188" s="51">
         <v>184</v>
       </c>
-      <c r="B188" s="163"/>
+      <c r="B188" s="164"/>
       <c r="C188" s="26" t="s">
         <v>3712</v>
       </c>
@@ -78711,7 +78726,7 @@
       <c r="A189" s="51">
         <v>185</v>
       </c>
-      <c r="B189" s="163"/>
+      <c r="B189" s="164"/>
       <c r="C189" s="26" t="s">
         <v>3713</v>
       </c>
@@ -78769,7 +78784,7 @@
       <c r="A190" s="51">
         <v>186</v>
       </c>
-      <c r="B190" s="163"/>
+      <c r="B190" s="164"/>
       <c r="C190" s="26" t="s">
         <v>3714</v>
       </c>
@@ -78827,7 +78842,7 @@
       <c r="A191" s="51">
         <v>187</v>
       </c>
-      <c r="B191" s="163"/>
+      <c r="B191" s="164"/>
       <c r="C191" s="26" t="s">
         <v>3715</v>
       </c>
@@ -78885,7 +78900,7 @@
       <c r="A192" s="51">
         <v>188</v>
       </c>
-      <c r="B192" s="163"/>
+      <c r="B192" s="164"/>
       <c r="C192" s="26" t="s">
         <v>3716</v>
       </c>
@@ -78939,11 +78954,11 @@
       </c>
       <c r="R192" s="74"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A193" s="51">
         <v>189</v>
       </c>
-      <c r="B193" s="163"/>
+      <c r="B193" s="164"/>
       <c r="C193" s="26" t="s">
         <v>3717</v>
       </c>
@@ -78997,11 +79012,11 @@
       </c>
       <c r="R193" s="121"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A194" s="51">
         <v>190</v>
       </c>
-      <c r="B194" s="163"/>
+      <c r="B194" s="164"/>
       <c r="C194" s="26" t="s">
         <v>3718</v>
       </c>
@@ -79057,11 +79072,11 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A195" s="51">
         <v>191</v>
       </c>
-      <c r="B195" s="163"/>
+      <c r="B195" s="164"/>
       <c r="C195" s="26" t="s">
         <v>3719</v>
       </c>
@@ -79115,11 +79130,11 @@
       </c>
       <c r="R195" s="121"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A196" s="51">
         <v>192</v>
       </c>
-      <c r="B196" s="163"/>
+      <c r="B196" s="164"/>
       <c r="C196" s="26" t="s">
         <v>3720</v>
       </c>
@@ -79173,11 +79188,11 @@
       </c>
       <c r="R196" s="121"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A197" s="51">
         <v>193</v>
       </c>
-      <c r="B197" s="163"/>
+      <c r="B197" s="164"/>
       <c r="C197" s="26" t="s">
         <v>3721</v>
       </c>
@@ -79231,11 +79246,11 @@
       </c>
       <c r="R197" s="74"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A198" s="51">
         <v>194</v>
       </c>
-      <c r="B198" s="163"/>
+      <c r="B198" s="164"/>
       <c r="C198" s="26" t="s">
         <v>3722</v>
       </c>
@@ -79289,11 +79304,11 @@
       </c>
       <c r="R198" s="74"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A199" s="51">
         <v>195</v>
       </c>
-      <c r="B199" s="163"/>
+      <c r="B199" s="164"/>
       <c r="C199" s="26" t="s">
         <v>3723</v>
       </c>
@@ -79347,11 +79362,11 @@
       </c>
       <c r="R199" s="74"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A200" s="51">
         <v>196</v>
       </c>
-      <c r="B200" s="163"/>
+      <c r="B200" s="164"/>
       <c r="C200" s="26" t="s">
         <v>3724</v>
       </c>
@@ -79405,11 +79420,11 @@
       </c>
       <c r="R200" s="74"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A201" s="51">
         <v>197</v>
       </c>
-      <c r="B201" s="163"/>
+      <c r="B201" s="164"/>
       <c r="C201" s="26" t="s">
         <v>3725</v>
       </c>
@@ -79463,11 +79478,11 @@
       </c>
       <c r="R201" s="74"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A202" s="51">
         <v>198</v>
       </c>
-      <c r="B202" s="163"/>
+      <c r="B202" s="164"/>
       <c r="C202" s="26" t="s">
         <v>3726</v>
       </c>
@@ -79521,11 +79536,11 @@
       </c>
       <c r="R202" s="74"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A203" s="51">
         <v>199</v>
       </c>
-      <c r="B203" s="163"/>
+      <c r="B203" s="164"/>
       <c r="C203" s="26" t="s">
         <v>3727</v>
       </c>
@@ -79579,11 +79594,11 @@
       </c>
       <c r="R203" s="74"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A204" s="51">
         <v>200</v>
       </c>
-      <c r="B204" s="163"/>
+      <c r="B204" s="164"/>
       <c r="C204" s="26" t="s">
         <v>3728</v>
       </c>
@@ -79639,21 +79654,21 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A205" s="51">
         <v>201</v>
       </c>
-      <c r="B205" s="163"/>
+      <c r="B205" s="164"/>
       <c r="C205" s="26" t="s">
         <v>3729</v>
       </c>
-      <c r="D205" s="162" t="s">
+      <c r="D205" s="163" t="s">
         <v>1655</v>
       </c>
-      <c r="E205" s="162" t="s">
+      <c r="E205" s="163" t="s">
         <v>1656</v>
       </c>
-      <c r="F205" s="162" t="s">
+      <c r="F205" s="163" t="s">
         <v>1657</v>
       </c>
       <c r="G205" s="116" t="s">
@@ -79692,24 +79707,34 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q205" s="187">
+      <c r="Q205" s="72">
+        <v>3.74</v>
+      </c>
+      <c r="R205" s="160" t="s">
+        <v>3741</v>
+      </c>
+      <c r="S205" s="70">
+        <v>3.74</v>
+      </c>
+      <c r="T205" s="70">
+        <f>SUM(S205:S207)</f>
         <v>11.22</v>
       </c>
-      <c r="R205" s="159" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U205" s="147">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A206" s="51">
         <v>202</v>
       </c>
-      <c r="B206" s="163"/>
+      <c r="B206" s="164"/>
       <c r="C206" s="26" t="s">
         <v>3730</v>
       </c>
-      <c r="D206" s="163"/>
-      <c r="E206" s="163"/>
-      <c r="F206" s="163"/>
+      <c r="D206" s="164"/>
+      <c r="E206" s="164"/>
+      <c r="F206" s="164"/>
       <c r="G206" s="116" t="s">
         <v>3220</v>
       </c>
@@ -79746,20 +79771,25 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q206" s="191"/>
-      <c r="R206" s="160"/>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q206" s="72">
+        <v>3.74</v>
+      </c>
+      <c r="R206" s="161"/>
+      <c r="S206" s="70">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A207" s="51">
         <v>203</v>
       </c>
-      <c r="B207" s="164"/>
+      <c r="B207" s="165"/>
       <c r="C207" s="26" t="s">
         <v>3731</v>
       </c>
-      <c r="D207" s="164"/>
-      <c r="E207" s="164"/>
-      <c r="F207" s="164"/>
+      <c r="D207" s="165"/>
+      <c r="E207" s="165"/>
+      <c r="F207" s="165"/>
       <c r="G207" s="116" t="s">
         <v>3</v>
       </c>
@@ -79796,26 +79826,31 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q207" s="188"/>
-      <c r="R207" s="161"/>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q207" s="72">
+        <v>3.74</v>
+      </c>
+      <c r="R207" s="162"/>
+      <c r="S207" s="70">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A208" s="51">
         <v>204</v>
       </c>
-      <c r="B208" s="162" t="s">
+      <c r="B208" s="163" t="s">
         <v>3780</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>3781</v>
       </c>
-      <c r="D208" s="162" t="s">
+      <c r="D208" s="163" t="s">
         <v>1575</v>
       </c>
-      <c r="E208" s="167" t="s">
+      <c r="E208" s="168" t="s">
         <v>1576</v>
       </c>
-      <c r="F208" s="167" t="s">
+      <c r="F208" s="168" t="s">
         <v>1577</v>
       </c>
       <c r="G208" s="116" t="s">
@@ -79854,24 +79889,34 @@
         <f t="shared" si="19"/>
         <v>41.19</v>
       </c>
-      <c r="Q208" s="187">
+      <c r="Q208" s="72">
+        <v>41.19</v>
+      </c>
+      <c r="R208" s="160" t="s">
+        <v>3784</v>
+      </c>
+      <c r="S208" s="70">
+        <v>41.19</v>
+      </c>
+      <c r="T208" s="70">
+        <f>SUM(S208:S210)</f>
         <v>112.34</v>
       </c>
-      <c r="R208" s="159" t="s">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U208" s="147">
+        <v>112.34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A209" s="51">
         <v>205</v>
       </c>
-      <c r="B209" s="163"/>
+      <c r="B209" s="164"/>
       <c r="C209" s="26" t="s">
         <v>3782</v>
       </c>
-      <c r="D209" s="163"/>
-      <c r="E209" s="168"/>
-      <c r="F209" s="168"/>
+      <c r="D209" s="164"/>
+      <c r="E209" s="169"/>
+      <c r="F209" s="169"/>
       <c r="G209" s="116" t="s">
         <v>3220</v>
       </c>
@@ -79908,20 +79953,25 @@
         <f t="shared" si="19"/>
         <v>37.450000000000003</v>
       </c>
-      <c r="Q209" s="191"/>
-      <c r="R209" s="160"/>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q209" s="72">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="R209" s="161"/>
+      <c r="S209" s="70">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A210" s="51">
         <v>206</v>
       </c>
-      <c r="B210" s="164"/>
+      <c r="B210" s="165"/>
       <c r="C210" s="26" t="s">
         <v>3783</v>
       </c>
-      <c r="D210" s="164"/>
-      <c r="E210" s="169"/>
-      <c r="F210" s="169"/>
+      <c r="D210" s="165"/>
+      <c r="E210" s="170"/>
+      <c r="F210" s="170"/>
       <c r="G210" s="116" t="s">
         <v>3</v>
       </c>
@@ -79958,14 +80008,19 @@
         <f t="shared" si="19"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="Q210" s="188"/>
-      <c r="R210" s="161"/>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q210" s="72">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="R210" s="162"/>
+      <c r="S210" s="70">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A211" s="51">
         <v>207</v>
       </c>
-      <c r="B211" s="162" t="s">
+      <c r="B211" s="163" t="s">
         <v>3827</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -80021,11 +80076,11 @@
       </c>
       <c r="R211" s="74"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A212" s="51">
         <v>208</v>
       </c>
-      <c r="B212" s="163"/>
+      <c r="B212" s="164"/>
       <c r="C212" s="26" t="s">
         <v>3786</v>
       </c>
@@ -80079,11 +80134,11 @@
       </c>
       <c r="R212" s="74"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A213" s="51">
         <v>209</v>
       </c>
-      <c r="B213" s="163"/>
+      <c r="B213" s="164"/>
       <c r="C213" s="26" t="s">
         <v>3787</v>
       </c>
@@ -80137,11 +80192,11 @@
       </c>
       <c r="R213" s="74"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A214" s="51">
         <v>210</v>
       </c>
-      <c r="B214" s="163"/>
+      <c r="B214" s="164"/>
       <c r="C214" s="26" t="s">
         <v>3788</v>
       </c>
@@ -80195,11 +80250,11 @@
       </c>
       <c r="R214" s="74"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A215" s="51">
         <v>211</v>
       </c>
-      <c r="B215" s="163"/>
+      <c r="B215" s="164"/>
       <c r="C215" s="26" t="s">
         <v>3789</v>
       </c>
@@ -80253,11 +80308,11 @@
       </c>
       <c r="R215" s="74"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A216" s="51">
         <v>212</v>
       </c>
-      <c r="B216" s="163"/>
+      <c r="B216" s="164"/>
       <c r="C216" s="26" t="s">
         <v>3790</v>
       </c>
@@ -80311,11 +80366,11 @@
       </c>
       <c r="R216" s="74"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A217" s="51">
         <v>213</v>
       </c>
-      <c r="B217" s="163"/>
+      <c r="B217" s="164"/>
       <c r="C217" s="26" t="s">
         <v>3791</v>
       </c>
@@ -80369,11 +80424,11 @@
       </c>
       <c r="R217" s="74"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A218" s="51">
         <v>214</v>
       </c>
-      <c r="B218" s="163"/>
+      <c r="B218" s="164"/>
       <c r="C218" s="26" t="s">
         <v>3792</v>
       </c>
@@ -80427,11 +80482,11 @@
       </c>
       <c r="R218" s="74"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A219" s="51">
         <v>215</v>
       </c>
-      <c r="B219" s="163"/>
+      <c r="B219" s="164"/>
       <c r="C219" s="26" t="s">
         <v>3793</v>
       </c>
@@ -80485,11 +80540,11 @@
       </c>
       <c r="R219" s="74"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A220" s="51">
         <v>216</v>
       </c>
-      <c r="B220" s="163"/>
+      <c r="B220" s="164"/>
       <c r="C220" s="26" t="s">
         <v>3794</v>
       </c>
@@ -80543,11 +80598,11 @@
       </c>
       <c r="R220" s="74"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A221" s="51">
         <v>217</v>
       </c>
-      <c r="B221" s="163"/>
+      <c r="B221" s="164"/>
       <c r="C221" s="26" t="s">
         <v>3795</v>
       </c>
@@ -80601,11 +80656,11 @@
       </c>
       <c r="R221" s="74"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A222" s="51">
         <v>218</v>
       </c>
-      <c r="B222" s="163"/>
+      <c r="B222" s="164"/>
       <c r="C222" s="26" t="s">
         <v>3796</v>
       </c>
@@ -80659,11 +80714,11 @@
       </c>
       <c r="R222" s="74"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A223" s="51">
         <v>219</v>
       </c>
-      <c r="B223" s="163"/>
+      <c r="B223" s="164"/>
       <c r="C223" s="26" t="s">
         <v>3797</v>
       </c>
@@ -80717,11 +80772,11 @@
       </c>
       <c r="R223" s="74"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A224" s="51">
         <v>220</v>
       </c>
-      <c r="B224" s="163"/>
+      <c r="B224" s="164"/>
       <c r="C224" s="26" t="s">
         <v>3798</v>
       </c>
@@ -80779,7 +80834,7 @@
       <c r="A225" s="51">
         <v>221</v>
       </c>
-      <c r="B225" s="163"/>
+      <c r="B225" s="164"/>
       <c r="C225" s="26" t="s">
         <v>3799</v>
       </c>
@@ -80837,7 +80892,7 @@
       <c r="A226" s="51">
         <v>222</v>
       </c>
-      <c r="B226" s="163"/>
+      <c r="B226" s="164"/>
       <c r="C226" s="26" t="s">
         <v>3800</v>
       </c>
@@ -80895,7 +80950,7 @@
       <c r="A227" s="51">
         <v>223</v>
       </c>
-      <c r="B227" s="163"/>
+      <c r="B227" s="164"/>
       <c r="C227" s="26" t="s">
         <v>3801</v>
       </c>
@@ -80953,7 +81008,7 @@
       <c r="A228" s="51">
         <v>224</v>
       </c>
-      <c r="B228" s="163"/>
+      <c r="B228" s="164"/>
       <c r="C228" s="26" t="s">
         <v>3802</v>
       </c>
@@ -81011,7 +81066,7 @@
       <c r="A229" s="51">
         <v>225</v>
       </c>
-      <c r="B229" s="163"/>
+      <c r="B229" s="164"/>
       <c r="C229" s="26" t="s">
         <v>3803</v>
       </c>
@@ -81069,7 +81124,7 @@
       <c r="A230" s="51">
         <v>226</v>
       </c>
-      <c r="B230" s="163"/>
+      <c r="B230" s="164"/>
       <c r="C230" s="26" t="s">
         <v>3804</v>
       </c>
@@ -81127,7 +81182,7 @@
       <c r="A231" s="51">
         <v>227</v>
       </c>
-      <c r="B231" s="163"/>
+      <c r="B231" s="164"/>
       <c r="C231" s="26" t="s">
         <v>3805</v>
       </c>
@@ -81185,7 +81240,7 @@
       <c r="A232" s="51">
         <v>228</v>
       </c>
-      <c r="B232" s="163"/>
+      <c r="B232" s="164"/>
       <c r="C232" s="26" t="s">
         <v>3806</v>
       </c>
@@ -81243,7 +81298,7 @@
       <c r="A233" s="51">
         <v>229</v>
       </c>
-      <c r="B233" s="163"/>
+      <c r="B233" s="164"/>
       <c r="C233" s="26" t="s">
         <v>3807</v>
       </c>
@@ -81301,7 +81356,7 @@
       <c r="A234" s="51">
         <v>230</v>
       </c>
-      <c r="B234" s="163"/>
+      <c r="B234" s="164"/>
       <c r="C234" s="26" t="s">
         <v>3808</v>
       </c>
@@ -81359,7 +81414,7 @@
       <c r="A235" s="51">
         <v>231</v>
       </c>
-      <c r="B235" s="163"/>
+      <c r="B235" s="164"/>
       <c r="C235" s="26" t="s">
         <v>3809</v>
       </c>
@@ -81417,7 +81472,7 @@
       <c r="A236" s="51">
         <v>232</v>
       </c>
-      <c r="B236" s="163"/>
+      <c r="B236" s="164"/>
       <c r="C236" s="26" t="s">
         <v>3810</v>
       </c>
@@ -81475,7 +81530,7 @@
       <c r="A237" s="51">
         <v>233</v>
       </c>
-      <c r="B237" s="163"/>
+      <c r="B237" s="164"/>
       <c r="C237" s="26" t="s">
         <v>3811</v>
       </c>
@@ -81533,7 +81588,7 @@
       <c r="A238" s="51">
         <v>234</v>
       </c>
-      <c r="B238" s="163"/>
+      <c r="B238" s="164"/>
       <c r="C238" s="26" t="s">
         <v>3812</v>
       </c>
@@ -81591,7 +81646,7 @@
       <c r="A239" s="51">
         <v>235</v>
       </c>
-      <c r="B239" s="163"/>
+      <c r="B239" s="164"/>
       <c r="C239" s="26" t="s">
         <v>3813</v>
       </c>
@@ -81649,7 +81704,7 @@
       <c r="A240" s="51">
         <v>236</v>
       </c>
-      <c r="B240" s="163"/>
+      <c r="B240" s="164"/>
       <c r="C240" s="26" t="s">
         <v>3814</v>
       </c>
@@ -81703,11 +81758,11 @@
       </c>
       <c r="R240" s="74"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A241" s="51">
         <v>237</v>
       </c>
-      <c r="B241" s="163"/>
+      <c r="B241" s="164"/>
       <c r="C241" s="26" t="s">
         <v>3815</v>
       </c>
@@ -81761,11 +81816,11 @@
       </c>
       <c r="R241" s="74"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A242" s="51">
         <v>238</v>
       </c>
-      <c r="B242" s="163"/>
+      <c r="B242" s="164"/>
       <c r="C242" s="26" t="s">
         <v>3816</v>
       </c>
@@ -81819,11 +81874,11 @@
       </c>
       <c r="R242" s="74"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A243" s="51">
         <v>239</v>
       </c>
-      <c r="B243" s="163"/>
+      <c r="B243" s="164"/>
       <c r="C243" s="26" t="s">
         <v>3817</v>
       </c>
@@ -81877,11 +81932,11 @@
       </c>
       <c r="R243" s="74"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A244" s="51">
         <v>240</v>
       </c>
-      <c r="B244" s="163"/>
+      <c r="B244" s="164"/>
       <c r="C244" s="26" t="s">
         <v>3818</v>
       </c>
@@ -81935,11 +81990,11 @@
       </c>
       <c r="R244" s="74"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A245" s="51">
         <v>241</v>
       </c>
-      <c r="B245" s="163"/>
+      <c r="B245" s="164"/>
       <c r="C245" s="26" t="s">
         <v>3819</v>
       </c>
@@ -81993,11 +82048,11 @@
       </c>
       <c r="R245" s="74"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A246" s="51">
         <v>242</v>
       </c>
-      <c r="B246" s="163"/>
+      <c r="B246" s="164"/>
       <c r="C246" s="26" t="s">
         <v>3820</v>
       </c>
@@ -82051,11 +82106,11 @@
       </c>
       <c r="R246" s="74"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A247" s="51">
         <v>243</v>
       </c>
-      <c r="B247" s="163"/>
+      <c r="B247" s="164"/>
       <c r="C247" s="26" t="s">
         <v>3821</v>
       </c>
@@ -82109,11 +82164,11 @@
       </c>
       <c r="R247" s="74"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A248" s="51">
         <v>244</v>
       </c>
-      <c r="B248" s="163"/>
+      <c r="B248" s="164"/>
       <c r="C248" s="26" t="s">
         <v>3822</v>
       </c>
@@ -82167,11 +82222,11 @@
       </c>
       <c r="R248" s="74"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A249" s="51">
         <v>245</v>
       </c>
-      <c r="B249" s="163"/>
+      <c r="B249" s="164"/>
       <c r="C249" s="26" t="s">
         <v>3823</v>
       </c>
@@ -82225,11 +82280,11 @@
       </c>
       <c r="R249" s="74"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A250" s="51">
         <v>246</v>
       </c>
-      <c r="B250" s="163"/>
+      <c r="B250" s="164"/>
       <c r="C250" s="26" t="s">
         <v>3824</v>
       </c>
@@ -82283,11 +82338,11 @@
       </c>
       <c r="R250" s="74"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A251" s="51">
         <v>247</v>
       </c>
-      <c r="B251" s="163"/>
+      <c r="B251" s="164"/>
       <c r="C251" s="26" t="s">
         <v>3825</v>
       </c>
@@ -82341,11 +82396,11 @@
       </c>
       <c r="R251" s="74"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A252" s="51">
         <v>248</v>
       </c>
-      <c r="B252" s="164"/>
+      <c r="B252" s="165"/>
       <c r="C252" s="26" t="s">
         <v>3826</v>
       </c>
@@ -82399,23 +82454,23 @@
       </c>
       <c r="R252" s="74"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A253" s="51">
         <v>249</v>
       </c>
-      <c r="B253" s="162" t="s">
+      <c r="B253" s="163" t="s">
         <v>3840</v>
       </c>
       <c r="C253" s="26" t="s">
         <v>3844</v>
       </c>
-      <c r="D253" s="162" t="s">
+      <c r="D253" s="163" t="s">
         <v>2276</v>
       </c>
-      <c r="E253" s="167" t="s">
+      <c r="E253" s="168" t="s">
         <v>3082</v>
       </c>
-      <c r="F253" s="167" t="s">
+      <c r="F253" s="168" t="s">
         <v>2277</v>
       </c>
       <c r="G253" s="116" t="s">
@@ -82454,22 +82509,32 @@
         <f t="shared" si="19"/>
         <v>127.33</v>
       </c>
-      <c r="Q253" s="187">
+      <c r="Q253" s="72">
+        <v>127.37</v>
+      </c>
+      <c r="R253" s="74"/>
+      <c r="S253" s="70">
+        <v>127.37</v>
+      </c>
+      <c r="T253" s="70">
+        <f>SUM(S253:S254)</f>
         <v>254.75</v>
       </c>
-      <c r="R253" s="74"/>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U253" s="147">
+        <v>254.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A254" s="51">
         <v>250</v>
       </c>
-      <c r="B254" s="163"/>
+      <c r="B254" s="164"/>
       <c r="C254" s="26" t="s">
         <v>3845</v>
       </c>
-      <c r="D254" s="164"/>
-      <c r="E254" s="169"/>
-      <c r="F254" s="169"/>
+      <c r="D254" s="165"/>
+      <c r="E254" s="170"/>
+      <c r="F254" s="170"/>
       <c r="G254" s="116" t="s">
         <v>3</v>
       </c>
@@ -82506,14 +82571,19 @@
         <f t="shared" si="19"/>
         <v>127.33</v>
       </c>
-      <c r="Q254" s="188"/>
+      <c r="Q254" s="72">
+        <v>127.38</v>
+      </c>
       <c r="R254" s="74"/>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S254" s="70">
+        <v>127.38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A255" s="51">
         <v>251</v>
       </c>
-      <c r="B255" s="163"/>
+      <c r="B255" s="164"/>
       <c r="C255" s="26" t="s">
         <v>3846</v>
       </c>
@@ -82567,11 +82637,11 @@
       </c>
       <c r="R255" s="120"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A256" s="51">
         <v>252</v>
       </c>
-      <c r="B256" s="163"/>
+      <c r="B256" s="164"/>
       <c r="C256" s="26" t="s">
         <v>3847</v>
       </c>
@@ -82625,11 +82695,11 @@
       </c>
       <c r="R256" s="120"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A257" s="51">
         <v>253</v>
       </c>
-      <c r="B257" s="163"/>
+      <c r="B257" s="164"/>
       <c r="C257" s="26" t="s">
         <v>3848</v>
       </c>
@@ -82683,11 +82753,11 @@
       </c>
       <c r="R257" s="120"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A258" s="51">
         <v>254</v>
       </c>
-      <c r="B258" s="163"/>
+      <c r="B258" s="164"/>
       <c r="C258" s="26" t="s">
         <v>3849</v>
       </c>
@@ -82741,11 +82811,11 @@
       </c>
       <c r="R258" s="120"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A259" s="51">
         <v>255</v>
       </c>
-      <c r="B259" s="163"/>
+      <c r="B259" s="164"/>
       <c r="C259" s="26" t="s">
         <v>3850</v>
       </c>
@@ -82799,11 +82869,11 @@
       </c>
       <c r="R259" s="74"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A260" s="51">
         <v>256</v>
       </c>
-      <c r="B260" s="163"/>
+      <c r="B260" s="164"/>
       <c r="C260" s="26" t="s">
         <v>3851</v>
       </c>
@@ -82857,11 +82927,11 @@
       </c>
       <c r="R260" s="74"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A261" s="51">
         <v>257</v>
       </c>
-      <c r="B261" s="164"/>
+      <c r="B261" s="165"/>
       <c r="C261" s="26" t="s">
         <v>3852</v>
       </c>
@@ -82915,11 +82985,11 @@
       </c>
       <c r="R261" s="74"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A262" s="51">
         <v>258</v>
       </c>
-      <c r="B262" s="162" t="s">
+      <c r="B262" s="163" t="s">
         <v>3861</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -82977,11 +83047,11 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A263" s="51">
         <v>259</v>
       </c>
-      <c r="B263" s="163"/>
+      <c r="B263" s="164"/>
       <c r="C263" s="26" t="s">
         <v>3863</v>
       </c>
@@ -83037,11 +83107,11 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A264" s="51">
         <v>260</v>
       </c>
-      <c r="B264" s="163"/>
+      <c r="B264" s="164"/>
       <c r="C264" s="26" t="s">
         <v>3864</v>
       </c>
@@ -83095,11 +83165,11 @@
       </c>
       <c r="R264" s="74"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A265" s="51">
         <v>261</v>
       </c>
-      <c r="B265" s="163"/>
+      <c r="B265" s="164"/>
       <c r="C265" s="26" t="s">
         <v>3865</v>
       </c>
@@ -83153,21 +83223,21 @@
       </c>
       <c r="R265" s="74"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A266" s="51">
         <v>262</v>
       </c>
-      <c r="B266" s="163"/>
+      <c r="B266" s="164"/>
       <c r="C266" s="26" t="s">
         <v>3866</v>
       </c>
-      <c r="D266" s="165" t="s">
+      <c r="D266" s="166" t="s">
         <v>2207</v>
       </c>
-      <c r="E266" s="167" t="s">
+      <c r="E266" s="168" t="s">
         <v>3873</v>
       </c>
-      <c r="F266" s="167" t="s">
+      <c r="F266" s="168" t="s">
         <v>2194</v>
       </c>
       <c r="G266" s="116" t="s">
@@ -83206,22 +83276,32 @@
         <f t="shared" si="35"/>
         <v>632.9</v>
       </c>
-      <c r="Q266" s="157">
+      <c r="Q266" s="72">
+        <v>633</v>
+      </c>
+      <c r="R266" s="74"/>
+      <c r="S266" s="70">
+        <v>633</v>
+      </c>
+      <c r="T266" s="70">
+        <f>SUM(S266:S267)</f>
         <v>2947.5</v>
       </c>
-      <c r="R266" s="74"/>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U266" s="148">
+        <v>2947.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A267" s="51">
         <v>263</v>
       </c>
-      <c r="B267" s="163"/>
+      <c r="B267" s="164"/>
       <c r="C267" s="26" t="s">
         <v>3867</v>
       </c>
-      <c r="D267" s="166"/>
-      <c r="E267" s="168"/>
-      <c r="F267" s="168"/>
+      <c r="D267" s="167"/>
+      <c r="E267" s="169"/>
+      <c r="F267" s="169"/>
       <c r="G267" s="116" t="s">
         <v>3</v>
       </c>
@@ -83258,22 +83338,27 @@
         <f t="shared" si="30"/>
         <v>2314.41</v>
       </c>
-      <c r="Q267" s="158"/>
+      <c r="Q267" s="72">
+        <v>2314.5</v>
+      </c>
       <c r="R267" s="74"/>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S267" s="70">
+        <v>2314.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A268" s="51">
         <v>264</v>
       </c>
-      <c r="B268" s="163"/>
+      <c r="B268" s="164"/>
       <c r="C268" s="26" t="s">
         <v>3868</v>
       </c>
-      <c r="D268" s="165" t="s">
+      <c r="D268" s="166" t="s">
         <v>2205</v>
       </c>
-      <c r="E268" s="168"/>
-      <c r="F268" s="168"/>
+      <c r="E268" s="169"/>
+      <c r="F268" s="169"/>
       <c r="G268" s="116" t="s">
         <v>3220</v>
       </c>
@@ -83310,22 +83395,32 @@
         <f t="shared" si="30"/>
         <v>1857.52</v>
       </c>
-      <c r="Q268" s="157">
+      <c r="Q268" s="72">
+        <v>1857.52</v>
+      </c>
+      <c r="R268" s="74"/>
+      <c r="S268" s="70">
+        <v>1857.52</v>
+      </c>
+      <c r="T268" s="70">
+        <f>SUM(S268:S269)</f>
         <v>4969.75</v>
       </c>
-      <c r="R268" s="74"/>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U268" s="148">
+        <v>4969.75</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A269" s="51">
         <v>265</v>
       </c>
-      <c r="B269" s="163"/>
+      <c r="B269" s="164"/>
       <c r="C269" s="26" t="s">
         <v>3869</v>
       </c>
-      <c r="D269" s="166"/>
-      <c r="E269" s="169"/>
-      <c r="F269" s="169"/>
+      <c r="D269" s="167"/>
+      <c r="E269" s="170"/>
+      <c r="F269" s="170"/>
       <c r="G269" s="116" t="s">
         <v>3</v>
       </c>
@@ -83362,14 +83457,19 @@
         <f t="shared" si="30"/>
         <v>3112.09</v>
       </c>
-      <c r="Q269" s="158"/>
+      <c r="Q269" s="72">
+        <v>3112.23</v>
+      </c>
       <c r="R269" s="74"/>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S269" s="70">
+        <v>3112.23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A270" s="51">
         <v>266</v>
       </c>
-      <c r="B270" s="163"/>
+      <c r="B270" s="164"/>
       <c r="C270" s="26" t="s">
         <v>3870</v>
       </c>
@@ -83423,21 +83523,21 @@
       </c>
       <c r="R270" s="74"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A271" s="51">
         <v>267</v>
       </c>
-      <c r="B271" s="163"/>
+      <c r="B271" s="164"/>
       <c r="C271" s="26" t="s">
         <v>3871</v>
       </c>
-      <c r="D271" s="165" t="s">
+      <c r="D271" s="166" t="s">
         <v>438</v>
       </c>
-      <c r="E271" s="159" t="s">
+      <c r="E271" s="160" t="s">
         <v>439</v>
       </c>
-      <c r="F271" s="159" t="s">
+      <c r="F271" s="160" t="s">
         <v>440</v>
       </c>
       <c r="G271" s="116" t="s">
@@ -83476,24 +83576,34 @@
         <f t="shared" si="30"/>
         <v>44.94</v>
       </c>
-      <c r="Q271" s="157">
-        <v>258.39999999999998</v>
+      <c r="Q271" s="72">
+        <v>44.94</v>
       </c>
       <c r="R271" s="74" t="s">
         <v>3875</v>
       </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S271" s="70">
+        <v>44.94</v>
+      </c>
+      <c r="T271" s="70">
+        <f>SUM(S271:S272)</f>
+        <v>258.39999999999998</v>
+      </c>
+      <c r="U271" s="148">
+        <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A272" s="51">
         <v>268</v>
       </c>
-      <c r="B272" s="164"/>
+      <c r="B272" s="165"/>
       <c r="C272" s="26" t="s">
         <v>3872</v>
       </c>
-      <c r="D272" s="166"/>
-      <c r="E272" s="161"/>
-      <c r="F272" s="161"/>
+      <c r="D272" s="167"/>
+      <c r="E272" s="162"/>
+      <c r="F272" s="162"/>
       <c r="G272" s="116" t="s">
         <v>3</v>
       </c>
@@ -83530,9 +83640,14 @@
         <f t="shared" si="30"/>
         <v>213.46</v>
       </c>
-      <c r="Q272" s="158"/>
+      <c r="Q272" s="72">
+        <v>213.46</v>
+      </c>
       <c r="R272" s="74" t="s">
         <v>3875</v>
+      </c>
+      <c r="S272" s="70">
+        <v>213.46</v>
       </c>
     </row>
     <row r="273" spans="5:18" ht="25" thickBot="1" x14ac:dyDescent="0.45">
@@ -83645,14 +83760,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="Q253:Q254"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q205:Q207"/>
+  <mergeCells count="50">
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="F208:F210"/>
+    <mergeCell ref="F205:F207"/>
+    <mergeCell ref="F253:F254"/>
     <mergeCell ref="R205:R207"/>
-    <mergeCell ref="Q208:Q210"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -83667,8 +83780,7 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B25:B53"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="R3:R4"/>
@@ -83677,20 +83789,13 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="F208:F210"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="B54:B89"/>
     <mergeCell ref="B92:B133"/>
     <mergeCell ref="B134:B207"/>
     <mergeCell ref="D205:D207"/>
     <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F205:F207"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="Q266:Q267"/>
-    <mergeCell ref="Q268:Q269"/>
-    <mergeCell ref="Q271:Q272"/>
     <mergeCell ref="R208:R210"/>
     <mergeCell ref="B253:B261"/>
     <mergeCell ref="D266:D267"/>
@@ -83704,6 +83809,8 @@
     <mergeCell ref="B211:B252"/>
     <mergeCell ref="B208:B210"/>
     <mergeCell ref="D208:D210"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -83714,8 +83821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="F81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -83743,32 +83850,32 @@
     <col min="23" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="175" t="s">
         <v>3446</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
       <c r="R1" s="54"/>
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
       <c r="V1" s="24"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="95"/>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
@@ -83795,105 +83902,105 @@
       <c r="T2" s="95"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="146" t="s">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="154" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="177" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="127"/>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="177" t="s">
+      <c r="M3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="177" t="s">
+      <c r="N3" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="179" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="179" t="s">
+      <c r="Q3" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="173" t="s">
+      <c r="R3" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="175">
+      <c r="S3" s="188">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="172" t="s">
+      <c r="T3" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="176" t="s">
+      <c r="V3" s="187" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="152"/>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="184"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="128"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
       <c r="P4" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="176"/>
-    </row>
-    <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q4" s="184"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="187"/>
+    </row>
+    <row r="5" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
         <v>1</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="163" t="s">
         <v>3450</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -83951,11 +84058,11 @@
       <c r="U5" s="69"/>
       <c r="V5" s="69"/>
     </row>
-    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="163"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="26" t="s">
         <v>3469</v>
       </c>
@@ -84010,21 +84117,21 @@
       <c r="R6" s="67"/>
       <c r="U6" s="69"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="163"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="26" t="s">
         <v>3470</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="163" t="s">
         <v>2924</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="168" t="s">
         <v>2925</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="168" t="s">
         <v>2926</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -84063,26 +84170,36 @@
         <f t="shared" si="5"/>
         <v>380.92</v>
       </c>
-      <c r="Q7" s="187">
-        <v>2871.88</v>
+      <c r="Q7" s="72">
+        <v>380.92</v>
       </c>
       <c r="R7" s="67" t="s">
         <v>3482</v>
       </c>
       <c r="U7" s="69"/>
       <c r="V7" s="71"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W7" s="70">
+        <v>380.92</v>
+      </c>
+      <c r="X7" s="70">
+        <f>SUM(W7:W14)</f>
+        <v>2871.88</v>
+      </c>
+      <c r="Y7" s="147">
+        <v>2871.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="51">
         <v>4</v>
       </c>
-      <c r="B8" s="163"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="26" t="s">
         <v>3471</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
       <c r="G8" s="3" t="s">
         <v>3478</v>
       </c>
@@ -84119,25 +84236,30 @@
         <f t="shared" si="5"/>
         <v>654.84</v>
       </c>
-      <c r="Q8" s="191"/>
+      <c r="Q8" s="72">
+        <v>654.84</v>
+      </c>
       <c r="R8" s="67" t="s">
         <v>3482</v>
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="73"/>
       <c r="U8" s="73"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W8" s="70">
+        <v>654.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="51">
         <v>5</v>
       </c>
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="26" t="s">
         <v>3472</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
       <c r="G9" s="3" t="s">
         <v>3479</v>
       </c>
@@ -84174,23 +84296,28 @@
         <f t="shared" si="5"/>
         <v>646.28</v>
       </c>
-      <c r="Q9" s="191"/>
+      <c r="Q9" s="72">
+        <v>646.28</v>
+      </c>
       <c r="R9" s="67" t="s">
         <v>3482</v>
       </c>
       <c r="U9" s="69"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W9" s="70">
+        <v>646.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="51">
         <v>6</v>
       </c>
-      <c r="B10" s="163"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="26" t="s">
         <v>3473</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="3" t="s">
         <v>3108</v>
       </c>
@@ -84227,22 +84354,27 @@
         <f t="shared" si="5"/>
         <v>594.91999999999996</v>
       </c>
-      <c r="Q10" s="191"/>
+      <c r="Q10" s="72">
+        <v>594.91999999999996</v>
+      </c>
       <c r="R10" s="67" t="s">
         <v>3482</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W10" s="70">
+        <v>594.91999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="51">
         <v>7</v>
       </c>
-      <c r="B11" s="163"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="26" t="s">
         <v>3474</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
       <c r="G11" s="3" t="s">
         <v>3118</v>
       </c>
@@ -84279,7 +84411,9 @@
         <f t="shared" si="5"/>
         <v>410.88</v>
       </c>
-      <c r="Q11" s="191"/>
+      <c r="Q11" s="72">
+        <v>410.88</v>
+      </c>
       <c r="R11" s="67" t="s">
         <v>3482</v>
       </c>
@@ -84287,18 +84421,21 @@
       <c r="T11" s="73"/>
       <c r="U11" s="73"/>
       <c r="V11" s="73"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W11" s="70">
+        <v>410.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="51">
         <v>8</v>
       </c>
-      <c r="B12" s="163"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="26" t="s">
         <v>3475</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
       <c r="G12" s="3" t="s">
         <v>3480</v>
       </c>
@@ -84335,24 +84472,29 @@
         <f t="shared" si="5"/>
         <v>34.24</v>
       </c>
-      <c r="Q12" s="191"/>
+      <c r="Q12" s="72">
+        <v>34.24</v>
+      </c>
       <c r="R12" s="67" t="s">
         <v>3482</v>
       </c>
       <c r="U12" s="69"/>
       <c r="V12" s="69"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W12" s="70">
+        <v>34.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="51">
         <v>9</v>
       </c>
-      <c r="B13" s="163"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="26" t="s">
         <v>3476</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
       <c r="G13" s="3" t="s">
         <v>3481</v>
       </c>
@@ -84389,24 +84531,29 @@
         <f t="shared" si="5"/>
         <v>51.36</v>
       </c>
-      <c r="Q13" s="191"/>
+      <c r="Q13" s="72">
+        <v>51.36</v>
+      </c>
       <c r="R13" s="67" t="s">
         <v>3482</v>
       </c>
       <c r="U13" s="69"/>
       <c r="V13" s="73"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W13" s="70">
+        <v>51.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="51">
         <v>10</v>
       </c>
-      <c r="B14" s="164"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="26" t="s">
         <v>3477</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="3" t="s">
         <v>3220</v>
       </c>
@@ -84443,7 +84590,9 @@
         <f t="shared" si="5"/>
         <v>98.44</v>
       </c>
-      <c r="Q14" s="188"/>
+      <c r="Q14" s="72">
+        <v>98.44</v>
+      </c>
       <c r="R14" s="67" t="s">
         <v>3482</v>
       </c>
@@ -84462,12 +84611,15 @@
       <c r="V14" s="72">
         <v>4057.63</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W14" s="70">
+        <v>98.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="51">
         <v>11</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="163" t="s">
         <v>3483</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -84526,11 +84678,11 @@
       <c r="T15" s="71"/>
       <c r="U15" s="71"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="51">
         <v>12</v>
       </c>
-      <c r="B16" s="163"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="26" t="s">
         <v>3488</v>
       </c>
@@ -84592,7 +84744,7 @@
       <c r="A17" s="51">
         <v>13</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="26" t="s">
         <v>3489</v>
       </c>
@@ -84654,7 +84806,7 @@
       <c r="A18" s="51">
         <v>14</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="26" t="s">
         <v>3490</v>
       </c>
@@ -84714,7 +84866,7 @@
       <c r="A19" s="51">
         <v>15</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="26" t="s">
         <v>3491</v>
       </c>
@@ -84773,7 +84925,7 @@
       <c r="A20" s="51">
         <v>16</v>
       </c>
-      <c r="B20" s="163"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="26" t="s">
         <v>3492</v>
       </c>
@@ -84834,7 +84986,7 @@
       <c r="A21" s="51">
         <v>17</v>
       </c>
-      <c r="B21" s="163"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="26" t="s">
         <v>3493</v>
       </c>
@@ -84893,7 +85045,7 @@
       <c r="A22" s="51">
         <v>18</v>
       </c>
-      <c r="B22" s="164"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="26" t="s">
         <v>3494</v>
       </c>
@@ -84966,7 +85118,7 @@
       <c r="A23" s="51">
         <v>19</v>
       </c>
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="163" t="s">
         <v>3496</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -85030,7 +85182,7 @@
       <c r="A24" s="51">
         <v>20</v>
       </c>
-      <c r="B24" s="163"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="26" t="s">
         <v>3529</v>
       </c>
@@ -85091,7 +85243,7 @@
       <c r="A25" s="51">
         <v>21</v>
       </c>
-      <c r="B25" s="163"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="26" t="s">
         <v>3530</v>
       </c>
@@ -85153,7 +85305,7 @@
       <c r="A26" s="51">
         <v>22</v>
       </c>
-      <c r="B26" s="163"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="26" t="s">
         <v>3531</v>
       </c>
@@ -85215,7 +85367,7 @@
       <c r="A27" s="51">
         <v>23</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="26" t="s">
         <v>3532</v>
       </c>
@@ -85277,7 +85429,7 @@
       <c r="A28" s="51">
         <v>24</v>
       </c>
-      <c r="B28" s="163"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="26" t="s">
         <v>3533</v>
       </c>
@@ -85339,7 +85491,7 @@
       <c r="A29" s="51">
         <v>25</v>
       </c>
-      <c r="B29" s="163"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="26" t="s">
         <v>3534</v>
       </c>
@@ -85399,7 +85551,7 @@
       <c r="A30" s="51">
         <v>26</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="26" t="s">
         <v>3535</v>
       </c>
@@ -85472,7 +85624,7 @@
       <c r="A31" s="51">
         <v>27</v>
       </c>
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="163" t="s">
         <v>3541</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -85535,7 +85687,7 @@
       <c r="A32" s="51">
         <v>28</v>
       </c>
-      <c r="B32" s="163"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="26" t="s">
         <v>3537</v>
       </c>
@@ -85596,7 +85748,7 @@
       <c r="A33" s="51">
         <v>29</v>
       </c>
-      <c r="B33" s="163"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="26" t="s">
         <v>3538</v>
       </c>
@@ -85656,7 +85808,7 @@
       <c r="A34" s="51">
         <v>30</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="164"/>
       <c r="C34" s="26" t="s">
         <v>3539</v>
       </c>
@@ -85715,7 +85867,7 @@
       <c r="A35" s="51">
         <v>31</v>
       </c>
-      <c r="B35" s="163"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="26" t="s">
         <v>3583</v>
       </c>
@@ -85775,7 +85927,7 @@
       <c r="A36" s="51">
         <v>32</v>
       </c>
-      <c r="B36" s="163"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="26" t="s">
         <v>3584</v>
       </c>
@@ -85835,7 +85987,7 @@
       <c r="A37" s="51">
         <v>33</v>
       </c>
-      <c r="B37" s="163"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="26" t="s">
         <v>3585</v>
       </c>
@@ -85895,7 +86047,7 @@
       <c r="A38" s="51">
         <v>34</v>
       </c>
-      <c r="B38" s="164"/>
+      <c r="B38" s="165"/>
       <c r="C38" s="26" t="s">
         <v>3586</v>
       </c>
@@ -86045,7 +86197,7 @@
       <c r="A40" s="51">
         <v>36</v>
       </c>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="163" t="s">
         <v>3634</v>
       </c>
       <c r="C40" s="26" t="s">
@@ -86106,7 +86258,7 @@
       <c r="A41" s="51">
         <v>37</v>
       </c>
-      <c r="B41" s="163"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="26" t="s">
         <v>3640</v>
       </c>
@@ -86167,7 +86319,7 @@
       <c r="A42" s="51">
         <v>38</v>
       </c>
-      <c r="B42" s="163"/>
+      <c r="B42" s="164"/>
       <c r="C42" s="26" t="s">
         <v>3641</v>
       </c>
@@ -86226,7 +86378,7 @@
       <c r="A43" s="51">
         <v>39</v>
       </c>
-      <c r="B43" s="163"/>
+      <c r="B43" s="164"/>
       <c r="C43" s="26" t="s">
         <v>3642</v>
       </c>
@@ -86286,7 +86438,7 @@
       <c r="A44" s="51">
         <v>40</v>
       </c>
-      <c r="B44" s="163"/>
+      <c r="B44" s="164"/>
       <c r="C44" s="26" t="s">
         <v>3643</v>
       </c>
@@ -86346,7 +86498,7 @@
       <c r="A45" s="51">
         <v>41</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="26" t="s">
         <v>3644</v>
       </c>
@@ -86406,7 +86558,7 @@
       <c r="A46" s="51">
         <v>42</v>
       </c>
-      <c r="B46" s="163"/>
+      <c r="B46" s="164"/>
       <c r="C46" s="26" t="s">
         <v>3645</v>
       </c>
@@ -86466,7 +86618,7 @@
       <c r="A47" s="51">
         <v>43</v>
       </c>
-      <c r="B47" s="163"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="26" t="s">
         <v>3646</v>
       </c>
@@ -86528,7 +86680,7 @@
       <c r="A48" s="51">
         <v>44</v>
       </c>
-      <c r="B48" s="163"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="26" t="s">
         <v>3647</v>
       </c>
@@ -86588,7 +86740,7 @@
       <c r="A49" s="51">
         <v>45</v>
       </c>
-      <c r="B49" s="163"/>
+      <c r="B49" s="164"/>
       <c r="C49" s="26" t="s">
         <v>3648</v>
       </c>
@@ -86648,7 +86800,7 @@
       <c r="A50" s="51">
         <v>46</v>
       </c>
-      <c r="B50" s="163"/>
+      <c r="B50" s="164"/>
       <c r="C50" s="26" t="s">
         <v>3649</v>
       </c>
@@ -86708,7 +86860,7 @@
       <c r="A51" s="51">
         <v>47</v>
       </c>
-      <c r="B51" s="163"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="26" t="s">
         <v>3650</v>
       </c>
@@ -86768,7 +86920,7 @@
       <c r="A52" s="51">
         <v>48</v>
       </c>
-      <c r="B52" s="163"/>
+      <c r="B52" s="164"/>
       <c r="C52" s="26" t="s">
         <v>3651</v>
       </c>
@@ -86828,7 +86980,7 @@
       <c r="A53" s="51">
         <v>49</v>
       </c>
-      <c r="B53" s="163"/>
+      <c r="B53" s="164"/>
       <c r="C53" s="26" t="s">
         <v>3652</v>
       </c>
@@ -86887,7 +87039,7 @@
       <c r="A54" s="51">
         <v>50</v>
       </c>
-      <c r="B54" s="163"/>
+      <c r="B54" s="164"/>
       <c r="C54" s="26" t="s">
         <v>3653</v>
       </c>
@@ -86947,7 +87099,7 @@
       <c r="A55" s="51">
         <v>51</v>
       </c>
-      <c r="B55" s="163"/>
+      <c r="B55" s="164"/>
       <c r="C55" s="26" t="s">
         <v>3654</v>
       </c>
@@ -87009,7 +87161,7 @@
       <c r="A56" s="51">
         <v>52</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="26" t="s">
         <v>3655</v>
       </c>
@@ -87070,7 +87222,7 @@
       <c r="A57" s="51">
         <v>53</v>
       </c>
-      <c r="B57" s="164"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="26" t="s">
         <v>3656</v>
       </c>
@@ -87143,7 +87295,7 @@
       <c r="A58" s="51">
         <v>54</v>
       </c>
-      <c r="B58" s="162" t="s">
+      <c r="B58" s="163" t="s">
         <v>3657</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -87207,17 +87359,17 @@
       <c r="A59" s="51">
         <v>55</v>
       </c>
-      <c r="B59" s="163"/>
+      <c r="B59" s="164"/>
       <c r="C59" s="26" t="s">
         <v>3743</v>
       </c>
-      <c r="D59" s="162" t="s">
+      <c r="D59" s="163" t="s">
         <v>2459</v>
       </c>
-      <c r="E59" s="167" t="s">
+      <c r="E59" s="168" t="s">
         <v>2460</v>
       </c>
-      <c r="F59" s="167" t="s">
+      <c r="F59" s="168" t="s">
         <v>2461</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -87256,26 +87408,33 @@
         <f t="shared" si="5"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="Q59" s="187">
+      <c r="Q59" s="71">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="R59" s="74"/>
+      <c r="S59" s="71">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="T59" s="71">
+        <f>SUM(S59:S60)</f>
         <v>312.5</v>
       </c>
-      <c r="R59" s="74"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
+      <c r="U59" s="147">
+        <v>312.5</v>
+      </c>
       <c r="V59" s="73"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="51">
         <v>56</v>
       </c>
-      <c r="B60" s="163"/>
+      <c r="B60" s="164"/>
       <c r="C60" s="26" t="s">
         <v>3744</v>
       </c>
-      <c r="D60" s="164"/>
-      <c r="E60" s="169"/>
-      <c r="F60" s="169"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -87312,9 +87471,13 @@
         <f t="shared" si="5"/>
         <v>162.63999999999999</v>
       </c>
-      <c r="Q60" s="188"/>
+      <c r="Q60" s="71">
+        <v>162.69999999999999</v>
+      </c>
       <c r="R60" s="74"/>
-      <c r="S60" s="71"/>
+      <c r="S60" s="71">
+        <v>162.69999999999999</v>
+      </c>
       <c r="T60" s="71"/>
       <c r="U60" s="71"/>
       <c r="V60" s="73"/>
@@ -87323,7 +87486,7 @@
       <c r="A61" s="51">
         <v>57</v>
       </c>
-      <c r="B61" s="163"/>
+      <c r="B61" s="164"/>
       <c r="C61" s="26" t="s">
         <v>3745</v>
       </c>
@@ -87385,7 +87548,7 @@
       <c r="A62" s="51">
         <v>58</v>
       </c>
-      <c r="B62" s="163"/>
+      <c r="B62" s="164"/>
       <c r="C62" s="26" t="s">
         <v>3746</v>
       </c>
@@ -87445,7 +87608,7 @@
       <c r="A63" s="51">
         <v>59</v>
       </c>
-      <c r="B63" s="163"/>
+      <c r="B63" s="164"/>
       <c r="C63" s="26" t="s">
         <v>3747</v>
       </c>
@@ -87505,7 +87668,7 @@
       <c r="A64" s="51">
         <v>60</v>
       </c>
-      <c r="B64" s="163"/>
+      <c r="B64" s="164"/>
       <c r="C64" s="26" t="s">
         <v>3748</v>
       </c>
@@ -87567,7 +87730,7 @@
       <c r="A65" s="51">
         <v>61</v>
       </c>
-      <c r="B65" s="163"/>
+      <c r="B65" s="164"/>
       <c r="C65" s="26" t="s">
         <v>3749</v>
       </c>
@@ -87630,7 +87793,7 @@
       <c r="A66" s="51">
         <v>62</v>
       </c>
-      <c r="B66" s="163"/>
+      <c r="B66" s="164"/>
       <c r="C66" s="26" t="s">
         <v>3750</v>
       </c>
@@ -87691,7 +87854,7 @@
       <c r="A67" s="51">
         <v>63</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="26" t="s">
         <v>3751</v>
       </c>
@@ -87751,7 +87914,7 @@
       <c r="A68" s="51">
         <v>64</v>
       </c>
-      <c r="B68" s="163"/>
+      <c r="B68" s="164"/>
       <c r="C68" s="26" t="s">
         <v>3752</v>
       </c>
@@ -87813,7 +87976,7 @@
       <c r="A69" s="51">
         <v>65</v>
       </c>
-      <c r="B69" s="163"/>
+      <c r="B69" s="164"/>
       <c r="C69" s="26" t="s">
         <v>3753</v>
       </c>
@@ -87873,7 +88036,7 @@
       <c r="A70" s="51">
         <v>66</v>
       </c>
-      <c r="B70" s="163"/>
+      <c r="B70" s="164"/>
       <c r="C70" s="26" t="s">
         <v>3754</v>
       </c>
@@ -87935,7 +88098,7 @@
       <c r="A71" s="51">
         <v>67</v>
       </c>
-      <c r="B71" s="163"/>
+      <c r="B71" s="164"/>
       <c r="C71" s="26" t="s">
         <v>3755</v>
       </c>
@@ -87997,7 +88160,7 @@
       <c r="A72" s="51">
         <v>68</v>
       </c>
-      <c r="B72" s="163"/>
+      <c r="B72" s="164"/>
       <c r="C72" s="26" t="s">
         <v>3756</v>
       </c>
@@ -88059,7 +88222,7 @@
       <c r="A73" s="51">
         <v>69</v>
       </c>
-      <c r="B73" s="163"/>
+      <c r="B73" s="164"/>
       <c r="C73" s="26" t="s">
         <v>3757</v>
       </c>
@@ -88120,7 +88283,7 @@
       <c r="A74" s="51">
         <v>70</v>
       </c>
-      <c r="B74" s="163"/>
+      <c r="B74" s="164"/>
       <c r="C74" s="26" t="s">
         <v>3758</v>
       </c>
@@ -88182,7 +88345,7 @@
       <c r="A75" s="51">
         <v>71</v>
       </c>
-      <c r="B75" s="163"/>
+      <c r="B75" s="164"/>
       <c r="C75" s="26" t="s">
         <v>3759</v>
       </c>
@@ -88242,7 +88405,7 @@
       <c r="A76" s="51">
         <v>72</v>
       </c>
-      <c r="B76" s="163"/>
+      <c r="B76" s="164"/>
       <c r="C76" s="26" t="s">
         <v>3760</v>
       </c>
@@ -88303,7 +88466,7 @@
       <c r="A77" s="51">
         <v>73</v>
       </c>
-      <c r="B77" s="163"/>
+      <c r="B77" s="164"/>
       <c r="C77" s="26" t="s">
         <v>3761</v>
       </c>
@@ -88363,7 +88526,7 @@
       <c r="A78" s="51">
         <v>74</v>
       </c>
-      <c r="B78" s="163"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="26" t="s">
         <v>3762</v>
       </c>
@@ -88422,7 +88585,7 @@
       <c r="A79" s="51">
         <v>75</v>
       </c>
-      <c r="B79" s="163"/>
+      <c r="B79" s="164"/>
       <c r="C79" s="26" t="s">
         <v>3763</v>
       </c>
@@ -88484,7 +88647,7 @@
       <c r="A80" s="51">
         <v>76</v>
       </c>
-      <c r="B80" s="163"/>
+      <c r="B80" s="164"/>
       <c r="C80" s="26" t="s">
         <v>3764</v>
       </c>
@@ -88545,7 +88708,7 @@
       <c r="A81" s="51">
         <v>77</v>
       </c>
-      <c r="B81" s="163"/>
+      <c r="B81" s="164"/>
       <c r="C81" s="26" t="s">
         <v>3765</v>
       </c>
@@ -88605,7 +88768,7 @@
       <c r="A82" s="51">
         <v>78</v>
       </c>
-      <c r="B82" s="163"/>
+      <c r="B82" s="164"/>
       <c r="C82" s="26" t="s">
         <v>3766</v>
       </c>
@@ -88664,7 +88827,7 @@
       <c r="A83" s="51">
         <v>79</v>
       </c>
-      <c r="B83" s="163"/>
+      <c r="B83" s="164"/>
       <c r="C83" s="26" t="s">
         <v>3767</v>
       </c>
@@ -88724,7 +88887,7 @@
       <c r="A84" s="51">
         <v>80</v>
       </c>
-      <c r="B84" s="163"/>
+      <c r="B84" s="164"/>
       <c r="C84" s="26" t="s">
         <v>3768</v>
       </c>
@@ -88784,7 +88947,7 @@
       <c r="A85" s="51">
         <v>81</v>
       </c>
-      <c r="B85" s="163"/>
+      <c r="B85" s="164"/>
       <c r="C85" s="26" t="s">
         <v>3769</v>
       </c>
@@ -88844,7 +89007,7 @@
       <c r="A86" s="51">
         <v>82</v>
       </c>
-      <c r="B86" s="163"/>
+      <c r="B86" s="164"/>
       <c r="C86" s="26" t="s">
         <v>3770</v>
       </c>
@@ -88904,7 +89067,7 @@
       <c r="A87" s="51">
         <v>83</v>
       </c>
-      <c r="B87" s="164"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="26" t="s">
         <v>3771</v>
       </c>
@@ -88977,7 +89140,7 @@
       <c r="A88" s="51">
         <v>84</v>
       </c>
-      <c r="B88" s="162" t="s">
+      <c r="B88" s="163" t="s">
         <v>3827</v>
       </c>
       <c r="C88" s="26" t="s">
@@ -89039,7 +89202,7 @@
       <c r="A89" s="51">
         <v>85</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="26" t="s">
         <v>3832</v>
       </c>
@@ -89098,7 +89261,7 @@
       <c r="A90" s="51">
         <v>86</v>
       </c>
-      <c r="B90" s="163"/>
+      <c r="B90" s="164"/>
       <c r="C90" s="26" t="s">
         <v>3833</v>
       </c>
@@ -89157,7 +89320,7 @@
       <c r="A91" s="51">
         <v>87</v>
       </c>
-      <c r="B91" s="163"/>
+      <c r="B91" s="164"/>
       <c r="C91" s="26" t="s">
         <v>3834</v>
       </c>
@@ -89216,7 +89379,7 @@
       <c r="A92" s="51">
         <v>88</v>
       </c>
-      <c r="B92" s="163"/>
+      <c r="B92" s="164"/>
       <c r="C92" s="26" t="s">
         <v>3835</v>
       </c>
@@ -89275,7 +89438,7 @@
       <c r="A93" s="51">
         <v>89</v>
       </c>
-      <c r="B93" s="163"/>
+      <c r="B93" s="164"/>
       <c r="C93" s="26" t="s">
         <v>3836</v>
       </c>
@@ -89334,7 +89497,7 @@
       <c r="A94" s="51">
         <v>90</v>
       </c>
-      <c r="B94" s="163"/>
+      <c r="B94" s="164"/>
       <c r="C94" s="26" t="s">
         <v>3837</v>
       </c>
@@ -89393,7 +89556,7 @@
       <c r="A95" s="51">
         <v>91</v>
       </c>
-      <c r="B95" s="164"/>
+      <c r="B95" s="165"/>
       <c r="C95" s="26" t="s">
         <v>3838</v>
       </c>
@@ -89543,7 +89706,7 @@
       <c r="A97" s="51">
         <v>93</v>
       </c>
-      <c r="B97" s="162" t="s">
+      <c r="B97" s="163" t="s">
         <v>3840</v>
       </c>
       <c r="C97" s="26" t="s">
@@ -89604,7 +89767,7 @@
       <c r="A98" s="51">
         <v>94</v>
       </c>
-      <c r="B98" s="163"/>
+      <c r="B98" s="164"/>
       <c r="C98" s="26" t="s">
         <v>3856</v>
       </c>
@@ -89663,7 +89826,7 @@
       <c r="A99" s="51">
         <v>95</v>
       </c>
-      <c r="B99" s="163"/>
+      <c r="B99" s="164"/>
       <c r="C99" s="26" t="s">
         <v>3857</v>
       </c>
@@ -89724,7 +89887,7 @@
       <c r="A100" s="51">
         <v>96</v>
       </c>
-      <c r="B100" s="164"/>
+      <c r="B100" s="165"/>
       <c r="C100" s="26" t="s">
         <v>3858</v>
       </c>
@@ -89853,15 +90016,15 @@
       <c r="R102" s="68"/>
       <c r="S102" s="90">
         <f>SUM(S5:S101)</f>
-        <v>1720.32</v>
+        <v>2032.82</v>
       </c>
       <c r="T102" s="101">
         <f>SUM(T5:T101)</f>
-        <v>26296.319999999996</v>
+        <v>26608.819999999996</v>
       </c>
       <c r="U102" s="102">
         <f>SUM(U5:U101)</f>
-        <v>26306.010000000002</v>
+        <v>26618.510000000002</v>
       </c>
       <c r="V102" s="102">
         <f>SUM(V5:V101)</f>
@@ -89924,7 +90087,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="34">
     <mergeCell ref="B97:B100"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
@@ -89937,6 +90100,10 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="F7:F14"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
@@ -89946,14 +90113,8 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="E7:E14"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="Q7:Q14"/>
     <mergeCell ref="B15:B22"/>
     <mergeCell ref="F59:F60"/>
-    <mergeCell ref="Q59:Q60"/>
     <mergeCell ref="B88:B95"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="B31:B38"/>
